--- a/fish.xlsx
+++ b/fish.xlsx
@@ -3953,7 +3953,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4012,20 +4012,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4042,39 +4029,6 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4253,12 +4207,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Cambria Math"/>
       <charset val="134"/>
     </font>
@@ -4268,14 +4216,8 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4363,12 +4305,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4592,152 +4528,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4792,7 +4728,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4822,19 +4758,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4843,31 +4773,25 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4876,16 +4800,10 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5263,45 +5181,45 @@
     <col min="12" max="12" width="8.18333333333333" style="7" customWidth="1"/>
     <col min="13" max="13" width="8.36666666666667" style="7" customWidth="1"/>
     <col min="14" max="14" width="9.09166666666667" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9.09166666666667" style="33" customWidth="1"/>
-    <col min="16" max="17" width="7.54166666666667" style="33" customWidth="1"/>
-    <col min="18" max="18" width="7.63333333333333" style="34" customWidth="1"/>
-    <col min="19" max="19" width="8.36666666666667" style="34" customWidth="1"/>
+    <col min="15" max="15" width="9.09166666666667" style="31" customWidth="1"/>
+    <col min="16" max="17" width="7.54166666666667" style="31" customWidth="1"/>
+    <col min="18" max="18" width="7.63333333333333" style="32" customWidth="1"/>
+    <col min="19" max="19" width="8.36666666666667" style="32" customWidth="1"/>
     <col min="20" max="16384" width="9.09166666666667" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="32" customFormat="1" ht="28.5" spans="1:19">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="30" customFormat="1" ht="28.5" spans="1:19">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37">
+      <c r="H1" s="35">
         <v>0.2</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="9" t="s">
@@ -5313,27 +5231,27 @@
       <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="48">
+      <c r="R1" s="43">
         <v>161</v>
       </c>
-      <c r="S1" s="48">
+      <c r="S1" s="43">
         <v>161</v>
       </c>
     </row>
-    <row r="2" s="32" customFormat="1" spans="1:19">
+    <row r="2" s="30" customFormat="1" spans="1:19">
       <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -5351,12 +5269,12 @@
       <c r="G2" s="20">
         <v>1</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="37">
         <f>IF(G2=1,1,G2*(1+$H$1))</f>
         <v>1</v>
       </c>
       <c r="I2" s="20"/>
-      <c r="J2" s="43"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20">
         <f t="shared" ref="L2:L33" si="0">D2*E2</f>
@@ -5370,23 +5288,23 @@
         <f>AVERAGE(L2,M2)</f>
         <v>-9</v>
       </c>
-      <c r="O2" s="44">
+      <c r="O2" s="40">
         <f>1/(TRUNC($R$1/9))</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P2" s="45">
+      <c r="P2" s="41">
         <f>IF(G2=1,1/COUNTIF($G$2:$G$8,1),G2/2*$R$1/161*(PI()/10))</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q2" s="45">
+      <c r="Q2" s="41">
         <f t="shared" ref="Q2:Q7" si="2">IF(H2=1,1/COUNTIF($G$2:$G$8,1),H2/2*$R$1/161*(PI()/10))</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="R2" s="49">
+      <c r="R2" s="32">
         <f>O2*P2</f>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S2" s="49">
+      <c r="S2" s="32">
         <f>O2*Q2</f>
         <v>0.00980392156862745</v>
       </c>
@@ -5413,7 +5331,7 @@
       <c r="G3" s="20">
         <v>1</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="37">
         <f t="shared" ref="H3:H66" si="3">IF(G3=1,1,G3*(1+$H$1))</f>
         <v>1</v>
       </c>
@@ -5430,23 +5348,23 @@
         <f t="shared" ref="N3:N6" si="4">AVERAGE(L3,M3)</f>
         <v>8.5</v>
       </c>
-      <c r="O3" s="44">
+      <c r="O3" s="40">
         <f t="shared" ref="O3:O66" si="5">1/(TRUNC($R$1/9))</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P3" s="45">
+      <c r="P3" s="41">
         <f t="shared" ref="P3:P8" si="6">IF(G3=1,1/COUNTIF($G$2:$G$8,1),G3/2*$R$1/161*(PI()/10))</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="41">
         <f t="shared" si="2"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="32">
         <f t="shared" ref="R3:R66" si="7">O3*P3</f>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S3" s="49">
+      <c r="S3" s="32">
         <f t="shared" ref="S3:S66" si="8">O3*Q3</f>
         <v>0.00980392156862745</v>
       </c>
@@ -5473,12 +5391,12 @@
       <c r="G4" s="20">
         <v>1</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="46"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="20">
         <f t="shared" si="0"/>
@@ -5492,23 +5410,23 @@
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="41">
         <f t="shared" si="6"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="Q4" s="41">
         <f t="shared" si="2"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R4" s="49">
+      <c r="R4" s="32">
         <f t="shared" si="7"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S4" s="49">
+      <c r="S4" s="32">
         <f t="shared" si="8"/>
         <v>0.00980392156862745</v>
       </c>
@@ -5517,7 +5435,7 @@
       <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -5535,12 +5453,12 @@
       <c r="G5" s="20">
         <v>1</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="46"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="20">
         <f t="shared" si="0"/>
@@ -5554,23 +5472,23 @@
         <f t="shared" si="4"/>
         <v>-10.5</v>
       </c>
-      <c r="O5" s="44">
+      <c r="O5" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="41">
         <f t="shared" si="6"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="41">
         <f t="shared" si="2"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R5" s="49">
+      <c r="R5" s="32">
         <f t="shared" si="7"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="32">
         <f t="shared" si="8"/>
         <v>0.00980392156862745</v>
       </c>
@@ -5597,14 +5515,14 @@
       <c r="G6" s="20">
         <v>1.4</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <f t="shared" si="3"/>
         <v>1.68</v>
       </c>
       <c r="I6" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20">
         <f t="shared" si="0"/>
@@ -5618,23 +5536,23 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="41">
         <f t="shared" si="6"/>
         <v>0.219911485751285</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="41">
         <f t="shared" si="2"/>
         <v>0.263893782901543</v>
       </c>
-      <c r="R6" s="49">
+      <c r="R6" s="32">
         <f t="shared" si="7"/>
         <v>0.0129359697500756</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="32">
         <f t="shared" si="8"/>
         <v>0.0155231637000907</v>
       </c>
@@ -5661,12 +5579,12 @@
       <c r="G7" s="20">
         <v>1</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I7" s="20"/>
-      <c r="J7" s="43"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20">
         <f t="shared" si="0"/>
@@ -5680,23 +5598,23 @@
         <f t="shared" ref="N7:N32" si="9">AVERAGE(L7,M7)</f>
         <v>18</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="41">
         <f t="shared" si="6"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="41">
         <f t="shared" si="2"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R7" s="32">
         <f t="shared" si="7"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="32">
         <f t="shared" si="8"/>
         <v>0.00980392156862745</v>
       </c>
@@ -5723,12 +5641,12 @@
       <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I8" s="20"/>
-      <c r="J8" s="43"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20">
         <f t="shared" si="0"/>
@@ -5742,23 +5660,23 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="41">
         <f t="shared" si="6"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="41">
         <f>IF(H8=1,1/COUNTIF($G$2:$G$8,1),H8/2*$R$1/161*(PI()/10))</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="R8" s="49">
+      <c r="R8" s="32">
         <f t="shared" si="7"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S8" s="49">
+      <c r="S8" s="32">
         <f t="shared" si="8"/>
         <v>0.00980392156862745</v>
       </c>
@@ -5785,14 +5703,14 @@
       <c r="G9" s="20">
         <v>1.1</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="37">
         <f t="shared" si="3"/>
         <v>1.32</v>
       </c>
       <c r="I9" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="43"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20">
         <f t="shared" si="0"/>
@@ -5806,23 +5724,23 @@
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="41">
         <f t="shared" ref="P9:P14" si="10">IF(G9=1,1/COUNTIF($G$9:$G$14,1),G9/2*$R$1/161*(PI()/10))</f>
         <v>0.172787595947439</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="41">
         <f t="shared" ref="Q9:Q13" si="11">IF(H9=1,1/COUNTIF($G$9:$G$14,1),H9/2*$R$1/161*(PI()/10))</f>
         <v>0.207345115136926</v>
       </c>
-      <c r="R9" s="49">
+      <c r="R9" s="32">
         <f t="shared" si="7"/>
         <v>0.0101639762322023</v>
       </c>
-      <c r="S9" s="49">
+      <c r="S9" s="32">
         <f t="shared" si="8"/>
         <v>0.0121967714786427</v>
       </c>
@@ -5849,14 +5767,14 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I10" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="43"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20">
         <f t="shared" si="0"/>
@@ -5870,23 +5788,23 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="41">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="Q10" s="41">
         <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
-      <c r="R10" s="49">
+      <c r="R10" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -5895,7 +5813,7 @@
       <c r="A11" s="20">
         <v>2</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -5913,12 +5831,12 @@
       <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="43"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20">
         <f t="shared" si="0"/>
@@ -5932,23 +5850,23 @@
         <f t="shared" si="9"/>
         <v>-37</v>
       </c>
-      <c r="O11" s="44">
+      <c r="O11" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="41">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="41">
         <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
-      <c r="R11" s="49">
+      <c r="R11" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S11" s="49">
+      <c r="S11" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -5975,12 +5893,12 @@
       <c r="G12" s="20">
         <v>1</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="43"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20">
         <f t="shared" si="0"/>
@@ -5994,23 +5912,23 @@
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="O12" s="44">
+      <c r="O12" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="41">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="41">
         <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
-      <c r="R12" s="49">
+      <c r="R12" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S12" s="49">
+      <c r="S12" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -6037,12 +5955,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="46"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="20">
         <f t="shared" si="0"/>
@@ -6056,23 +5974,23 @@
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="O13" s="44">
+      <c r="O13" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="41">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="Q13" s="41">
         <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
-      <c r="R13" s="49">
+      <c r="R13" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S13" s="49">
+      <c r="S13" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -6099,12 +6017,12 @@
       <c r="G14" s="20">
         <v>1</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I14" s="20"/>
-      <c r="J14" s="43"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20">
         <f t="shared" si="0"/>
@@ -6118,23 +6036,23 @@
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="41">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="41">
         <f>IF(H14=1,1/COUNTIF($G$9:$G$14,1),H14/2*$R$1/161*(PI()/10))</f>
         <v>0.2</v>
       </c>
-      <c r="R14" s="49">
+      <c r="R14" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S14" s="49">
+      <c r="S14" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -6161,7 +6079,7 @@
       <c r="G15" s="20">
         <v>1</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6178,23 +6096,23 @@
         <f t="shared" si="9"/>
         <v>67.5</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="41">
         <f t="shared" ref="P15:Q20" si="12">IF(G15=1,1/COUNTIF($G$15:$G$20,1),G15/2*$R$1/161*(PI()/10))</f>
         <v>0.25</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="41">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="R15" s="49">
+      <c r="R15" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S15" s="49">
+      <c r="S15" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -6221,12 +6139,12 @@
       <c r="G16" s="20">
         <v>1</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I16" s="20"/>
-      <c r="J16" s="43"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20">
         <f t="shared" si="0"/>
@@ -6240,23 +6158,23 @@
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="41">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="41">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="R16" s="49">
+      <c r="R16" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S16" s="49">
+      <c r="S16" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -6283,14 +6201,14 @@
       <c r="G17" s="20">
         <v>0.8</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="37">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
       <c r="I17" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="43"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20">
         <f t="shared" si="0"/>
@@ -6304,23 +6222,23 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="41">
         <f t="shared" si="12"/>
         <v>0.125663706143592</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="41">
         <f t="shared" si="12"/>
         <v>0.15079644737231</v>
       </c>
-      <c r="R17" s="49">
+      <c r="R17" s="32">
         <f t="shared" si="7"/>
         <v>0.00739198271432893</v>
       </c>
-      <c r="S17" s="49">
+      <c r="S17" s="32">
         <f t="shared" si="8"/>
         <v>0.00887037925719471</v>
       </c>
@@ -6347,12 +6265,12 @@
       <c r="G18" s="20">
         <v>1</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I18" s="20"/>
-      <c r="J18" s="43"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20">
         <f t="shared" si="0"/>
@@ -6366,23 +6284,23 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="41">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="41">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="R18" s="49">
+      <c r="R18" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S18" s="49">
+      <c r="S18" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -6409,14 +6327,14 @@
       <c r="G19" s="20">
         <v>1.2</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="37">
         <f t="shared" si="3"/>
         <v>1.44</v>
       </c>
       <c r="I19" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J19" s="43"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20">
         <f t="shared" si="0"/>
@@ -6430,23 +6348,23 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="41">
         <f t="shared" si="12"/>
         <v>0.188495559215388</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="41">
         <f t="shared" si="12"/>
         <v>0.226194671058465</v>
       </c>
-      <c r="R19" s="49">
+      <c r="R19" s="32">
         <f t="shared" si="7"/>
         <v>0.0110879740714934</v>
       </c>
-      <c r="S19" s="49">
+      <c r="S19" s="32">
         <f t="shared" si="8"/>
         <v>0.0133055688857921</v>
       </c>
@@ -6455,7 +6373,7 @@
       <c r="A20" s="20">
         <v>3</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -6473,12 +6391,12 @@
       <c r="G20" s="20">
         <v>1</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I20" s="20"/>
-      <c r="J20" s="43"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20">
         <f t="shared" si="0"/>
@@ -6492,23 +6410,23 @@
         <f t="shared" si="9"/>
         <v>-130</v>
       </c>
-      <c r="O20" s="44">
+      <c r="O20" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="41">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q20" s="41">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="R20" s="49">
+      <c r="R20" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S20" s="49">
+      <c r="S20" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -6535,14 +6453,14 @@
       <c r="G21" s="20">
         <v>1.1</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="37">
         <f t="shared" si="3"/>
         <v>1.32</v>
       </c>
       <c r="I21" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J21" s="43"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20">
         <f t="shared" si="0"/>
@@ -6556,23 +6474,23 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="O21" s="44">
+      <c r="O21" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P21" s="45">
+      <c r="P21" s="41">
         <f t="shared" ref="P21:Q27" si="13">IF(G21=1,1/COUNTIF($G$21:$G$27,1),G21/2*$R$1/161*(PI()/10))</f>
         <v>0.172787595947439</v>
       </c>
-      <c r="Q21" s="45">
+      <c r="Q21" s="41">
         <f t="shared" si="13"/>
         <v>0.207345115136926</v>
       </c>
-      <c r="R21" s="49">
+      <c r="R21" s="32">
         <f t="shared" si="7"/>
         <v>0.0101639762322023</v>
       </c>
-      <c r="S21" s="49">
+      <c r="S21" s="32">
         <f t="shared" si="8"/>
         <v>0.0121967714786427</v>
       </c>
@@ -6599,12 +6517,12 @@
       <c r="G22" s="20">
         <v>1</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I22" s="20"/>
-      <c r="J22" s="43"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20">
         <f t="shared" si="0"/>
@@ -6618,23 +6536,23 @@
         <f t="shared" si="9"/>
         <v>148</v>
       </c>
-      <c r="O22" s="44">
+      <c r="O22" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="41">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="Q22" s="45">
+      <c r="Q22" s="41">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="R22" s="49">
+      <c r="R22" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S22" s="49">
+      <c r="S22" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -6643,7 +6561,7 @@
       <c r="A23" s="20">
         <v>4</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -6661,12 +6579,12 @@
       <c r="G23" s="20">
         <v>1</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I23" s="20"/>
-      <c r="J23" s="43"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20">
         <f t="shared" si="0"/>
@@ -6680,23 +6598,23 @@
         <f t="shared" si="9"/>
         <v>-160</v>
       </c>
-      <c r="O23" s="44">
+      <c r="O23" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P23" s="45">
+      <c r="P23" s="41">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="Q23" s="45">
+      <c r="Q23" s="41">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="R23" s="49">
+      <c r="R23" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S23" s="49">
+      <c r="S23" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -6723,12 +6641,12 @@
       <c r="G24" s="20">
         <v>1</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I24" s="20"/>
-      <c r="J24" s="43"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20">
         <f t="shared" si="0"/>
@@ -6742,23 +6660,23 @@
         <f t="shared" si="9"/>
         <v>108</v>
       </c>
-      <c r="O24" s="44">
+      <c r="O24" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P24" s="45">
+      <c r="P24" s="41">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="Q24" s="45">
+      <c r="Q24" s="41">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="R24" s="49">
+      <c r="R24" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S24" s="49">
+      <c r="S24" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -6785,12 +6703,12 @@
       <c r="G25" s="20">
         <v>1</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I25" s="20"/>
-      <c r="J25" s="43"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20">
         <f t="shared" si="0"/>
@@ -6804,23 +6722,23 @@
         <f t="shared" si="9"/>
         <v>138</v>
       </c>
-      <c r="O25" s="44">
+      <c r="O25" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P25" s="45">
+      <c r="P25" s="41">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="Q25" s="45">
+      <c r="Q25" s="41">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="R25" s="49">
+      <c r="R25" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S25" s="49">
+      <c r="S25" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -6847,12 +6765,12 @@
       <c r="G26" s="20">
         <v>1</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="46"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2">
         <f t="shared" si="0"/>
@@ -6866,23 +6784,23 @@
         <f t="shared" si="9"/>
         <v>138</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P26" s="45">
+      <c r="P26" s="41">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="41">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="R26" s="49">
+      <c r="R26" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S26" s="49">
+      <c r="S26" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -6909,14 +6827,14 @@
       <c r="G27" s="20">
         <v>1.2</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="37">
         <f t="shared" si="3"/>
         <v>1.44</v>
       </c>
       <c r="I27" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J27" s="43"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20">
         <f t="shared" si="0"/>
@@ -6930,23 +6848,23 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="O27" s="44">
+      <c r="O27" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P27" s="45">
+      <c r="P27" s="41">
         <f t="shared" si="13"/>
         <v>0.188495559215388</v>
       </c>
-      <c r="Q27" s="45">
+      <c r="Q27" s="41">
         <f t="shared" si="13"/>
         <v>0.226194671058465</v>
       </c>
-      <c r="R27" s="49">
+      <c r="R27" s="32">
         <f t="shared" si="7"/>
         <v>0.0110879740714934</v>
       </c>
-      <c r="S27" s="49">
+      <c r="S27" s="32">
         <f t="shared" si="8"/>
         <v>0.0133055688857921</v>
       </c>
@@ -6973,12 +6891,12 @@
       <c r="G28" s="20">
         <v>1</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I28" s="20"/>
-      <c r="J28" s="43"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20">
         <f t="shared" si="0"/>
@@ -6992,23 +6910,23 @@
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="O28" s="44">
+      <c r="O28" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="41">
         <f t="shared" ref="P28:Q33" si="14">IF(G28=1,1/COUNTIF($G$28:$G$33,1),G28/2*$R$1/161*(PI()/10))</f>
         <v>0.25</v>
       </c>
-      <c r="Q28" s="45">
+      <c r="Q28" s="41">
         <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
-      <c r="R28" s="49">
+      <c r="R28" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S28" s="49">
+      <c r="S28" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -7035,12 +6953,12 @@
       <c r="G29" s="20">
         <v>1</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I29" s="20"/>
-      <c r="J29" s="43"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20">
         <f t="shared" si="0"/>
@@ -7054,23 +6972,23 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O29" s="44">
+      <c r="O29" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P29" s="45">
+      <c r="P29" s="41">
         <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
-      <c r="Q29" s="45">
+      <c r="Q29" s="41">
         <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
-      <c r="R29" s="49">
+      <c r="R29" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S29" s="49">
+      <c r="S29" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -7097,14 +7015,14 @@
       <c r="G30" s="20">
         <v>0.4</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="37">
         <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="I30" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="43"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20">
         <f t="shared" si="0"/>
@@ -7118,23 +7036,23 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O30" s="44">
+      <c r="O30" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P30" s="45">
+      <c r="P30" s="41">
         <f t="shared" si="14"/>
         <v>0.0628318530717959</v>
       </c>
-      <c r="Q30" s="45">
+      <c r="Q30" s="41">
         <f t="shared" si="14"/>
         <v>0.075398223686155</v>
       </c>
-      <c r="R30" s="49">
+      <c r="R30" s="32">
         <f t="shared" si="7"/>
         <v>0.00369599135716446</v>
       </c>
-      <c r="S30" s="49">
+      <c r="S30" s="32">
         <f t="shared" si="8"/>
         <v>0.00443518962859735</v>
       </c>
@@ -7161,14 +7079,14 @@
       <c r="G31" s="20">
         <v>0.4</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="37">
         <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="I31" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J31" s="43"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20">
         <f t="shared" si="0"/>
@@ -7182,23 +7100,23 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O31" s="44">
+      <c r="O31" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P31" s="45">
+      <c r="P31" s="41">
         <f t="shared" si="14"/>
         <v>0.0628318530717959</v>
       </c>
-      <c r="Q31" s="45">
+      <c r="Q31" s="41">
         <f t="shared" si="14"/>
         <v>0.075398223686155</v>
       </c>
-      <c r="R31" s="49">
+      <c r="R31" s="32">
         <f t="shared" si="7"/>
         <v>0.00369599135716446</v>
       </c>
-      <c r="S31" s="49">
+      <c r="S31" s="32">
         <f t="shared" si="8"/>
         <v>0.00443518962859735</v>
       </c>
@@ -7225,12 +7143,12 @@
       <c r="G32" s="20">
         <v>1</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I32" s="20"/>
-      <c r="J32" s="43"/>
+      <c r="J32" s="20"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20">
         <f t="shared" si="0"/>
@@ -7244,23 +7162,23 @@
         <f t="shared" si="9"/>
         <v>170</v>
       </c>
-      <c r="O32" s="44">
+      <c r="O32" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P32" s="45">
+      <c r="P32" s="41">
         <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
-      <c r="Q32" s="45">
+      <c r="Q32" s="41">
         <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
-      <c r="R32" s="49">
+      <c r="R32" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S32" s="49">
+      <c r="S32" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -7287,12 +7205,12 @@
       <c r="G33" s="20">
         <v>1</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I33" s="20"/>
-      <c r="J33" s="43"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20">
         <f t="shared" si="0"/>
@@ -7306,23 +7224,23 @@
         <f t="shared" ref="N33:N60" si="15">AVERAGE(L33,M33)</f>
         <v>195</v>
       </c>
-      <c r="O33" s="44">
+      <c r="O33" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P33" s="45">
+      <c r="P33" s="41">
         <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
-      <c r="Q33" s="45">
+      <c r="Q33" s="41">
         <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
-      <c r="R33" s="49">
+      <c r="R33" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S33" s="49">
+      <c r="S33" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -7349,12 +7267,12 @@
       <c r="G34" s="20">
         <v>1</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I34" s="20"/>
-      <c r="J34" s="43"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20">
         <f t="shared" ref="L34:L65" si="16">D34*E34</f>
@@ -7368,23 +7286,23 @@
         <f t="shared" si="15"/>
         <v>237</v>
       </c>
-      <c r="O34" s="44">
+      <c r="O34" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P34" s="45">
+      <c r="P34" s="41">
         <f t="shared" ref="P34:Q40" si="18">IF(G34=1,1/COUNTIF($G$34:$G$40,1),G34/2*$R$1/161*(PI()/10))</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q34" s="45">
+      <c r="Q34" s="41">
         <f t="shared" si="18"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R34" s="49">
+      <c r="R34" s="32">
         <f t="shared" si="7"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S34" s="49">
+      <c r="S34" s="32">
         <f t="shared" si="8"/>
         <v>0.00980392156862745</v>
       </c>
@@ -7411,12 +7329,12 @@
       <c r="G35" s="20">
         <v>1</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I35" s="20"/>
-      <c r="J35" s="43"/>
+      <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20">
         <f t="shared" si="16"/>
@@ -7430,23 +7348,23 @@
         <f t="shared" si="15"/>
         <v>243</v>
       </c>
-      <c r="O35" s="44">
+      <c r="O35" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P35" s="45">
+      <c r="P35" s="41">
         <f t="shared" si="18"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q35" s="45">
+      <c r="Q35" s="41">
         <f t="shared" si="18"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R35" s="49">
+      <c r="R35" s="32">
         <f t="shared" si="7"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S35" s="49">
+      <c r="S35" s="32">
         <f t="shared" si="8"/>
         <v>0.00980392156862745</v>
       </c>
@@ -7473,14 +7391,14 @@
       <c r="G36" s="20">
         <v>1.2</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="37">
         <f t="shared" si="3"/>
         <v>1.44</v>
       </c>
       <c r="I36" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J36" s="43"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20">
         <f t="shared" si="16"/>
@@ -7494,23 +7412,23 @@
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="O36" s="44">
+      <c r="O36" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P36" s="45">
+      <c r="P36" s="41">
         <f t="shared" si="18"/>
         <v>0.188495559215388</v>
       </c>
-      <c r="Q36" s="45">
+      <c r="Q36" s="41">
         <f t="shared" si="18"/>
         <v>0.226194671058465</v>
       </c>
-      <c r="R36" s="49">
+      <c r="R36" s="32">
         <f t="shared" si="7"/>
         <v>0.0110879740714934</v>
       </c>
-      <c r="S36" s="49">
+      <c r="S36" s="32">
         <f t="shared" si="8"/>
         <v>0.0133055688857921</v>
       </c>
@@ -7519,7 +7437,7 @@
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="36" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="14" t="s">
@@ -7537,12 +7455,12 @@
       <c r="G37" s="20">
         <v>1</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I37" s="20"/>
-      <c r="J37" s="43"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20">
         <f t="shared" si="16"/>
@@ -7556,23 +7474,23 @@
         <f t="shared" si="15"/>
         <v>-320</v>
       </c>
-      <c r="O37" s="44">
+      <c r="O37" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P37" s="45">
+      <c r="P37" s="41">
         <f t="shared" si="18"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q37" s="45">
+      <c r="Q37" s="41">
         <f t="shared" si="18"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R37" s="49">
+      <c r="R37" s="32">
         <f t="shared" si="7"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S37" s="49">
+      <c r="S37" s="32">
         <f t="shared" si="8"/>
         <v>0.00980392156862745</v>
       </c>
@@ -7599,12 +7517,12 @@
       <c r="G38" s="20">
         <v>1</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I38" s="20"/>
-      <c r="J38" s="43"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="20">
         <f t="shared" si="16"/>
@@ -7618,23 +7536,23 @@
         <f t="shared" si="15"/>
         <v>336</v>
       </c>
-      <c r="O38" s="44">
+      <c r="O38" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P38" s="45">
+      <c r="P38" s="41">
         <f t="shared" si="18"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q38" s="45">
+      <c r="Q38" s="41">
         <f t="shared" si="18"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R38" s="49">
+      <c r="R38" s="32">
         <f t="shared" si="7"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S38" s="49">
+      <c r="S38" s="32">
         <f t="shared" si="8"/>
         <v>0.00980392156862745</v>
       </c>
@@ -7661,12 +7579,12 @@
       <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I39" s="20"/>
-      <c r="J39" s="43"/>
+      <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20">
         <f t="shared" si="16"/>
@@ -7680,23 +7598,23 @@
         <f t="shared" si="15"/>
         <v>285</v>
       </c>
-      <c r="O39" s="44">
+      <c r="O39" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P39" s="45">
+      <c r="P39" s="41">
         <f t="shared" si="18"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q39" s="45">
+      <c r="Q39" s="41">
         <f t="shared" si="18"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R39" s="49">
+      <c r="R39" s="32">
         <f t="shared" si="7"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S39" s="49">
+      <c r="S39" s="32">
         <f t="shared" si="8"/>
         <v>0.00980392156862745</v>
       </c>
@@ -7723,12 +7641,12 @@
       <c r="G40" s="20">
         <v>1</v>
       </c>
-      <c r="H40" s="39">
+      <c r="H40" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I40" s="20"/>
-      <c r="J40" s="43"/>
+      <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20">
         <f t="shared" si="16"/>
@@ -7742,23 +7660,23 @@
         <f t="shared" si="15"/>
         <v>291</v>
       </c>
-      <c r="O40" s="44">
+      <c r="O40" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P40" s="45">
+      <c r="P40" s="41">
         <f t="shared" si="18"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q40" s="45">
+      <c r="Q40" s="41">
         <f t="shared" si="18"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R40" s="49">
+      <c r="R40" s="32">
         <f t="shared" si="7"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S40" s="49">
+      <c r="S40" s="32">
         <f t="shared" si="8"/>
         <v>0.00980392156862745</v>
       </c>
@@ -7785,12 +7703,12 @@
       <c r="G41" s="20">
         <v>1</v>
       </c>
-      <c r="H41" s="39">
+      <c r="H41" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I41" s="20"/>
-      <c r="J41" s="43"/>
+      <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20">
         <f t="shared" si="16"/>
@@ -7804,23 +7722,23 @@
         <f t="shared" si="15"/>
         <v>58.5</v>
       </c>
-      <c r="O41" s="44">
+      <c r="O41" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P41" s="45">
+      <c r="P41" s="41">
         <f t="shared" ref="P41:Q46" si="19">IF(G41=1,1/COUNTIF($G$41:$G$46,1),G41/2*$R$1/161*(PI()/10))</f>
         <v>0.25</v>
       </c>
-      <c r="Q41" s="45">
+      <c r="Q41" s="41">
         <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="R41" s="49">
+      <c r="R41" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S41" s="49">
+      <c r="S41" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -7847,14 +7765,14 @@
       <c r="G42" s="20">
         <v>1.1</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H42" s="37">
         <f t="shared" si="3"/>
         <v>1.32</v>
       </c>
       <c r="I42" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J42" s="43"/>
+      <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20">
         <f t="shared" si="16"/>
@@ -7868,23 +7786,23 @@
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="O42" s="44">
+      <c r="O42" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P42" s="45">
+      <c r="P42" s="41">
         <f t="shared" si="19"/>
         <v>0.172787595947439</v>
       </c>
-      <c r="Q42" s="45">
+      <c r="Q42" s="41">
         <f t="shared" si="19"/>
         <v>0.207345115136926</v>
       </c>
-      <c r="R42" s="49">
+      <c r="R42" s="32">
         <f t="shared" si="7"/>
         <v>0.0101639762322023</v>
       </c>
-      <c r="S42" s="49">
+      <c r="S42" s="32">
         <f t="shared" si="8"/>
         <v>0.0121967714786427</v>
       </c>
@@ -7911,12 +7829,12 @@
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H43" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I43" s="20"/>
-      <c r="J43" s="43"/>
+      <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20">
         <f t="shared" si="16"/>
@@ -7930,23 +7848,23 @@
         <f t="shared" si="15"/>
         <v>360.5</v>
       </c>
-      <c r="O43" s="44">
+      <c r="O43" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P43" s="45">
+      <c r="P43" s="41">
         <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="Q43" s="45">
+      <c r="Q43" s="41">
         <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="R43" s="49">
+      <c r="R43" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S43" s="49">
+      <c r="S43" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -7973,12 +7891,12 @@
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="39">
+      <c r="H44" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I44" s="20"/>
-      <c r="J44" s="43"/>
+      <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20">
         <f t="shared" si="16"/>
@@ -7992,23 +7910,23 @@
         <f t="shared" si="15"/>
         <v>57.5</v>
       </c>
-      <c r="O44" s="44">
+      <c r="O44" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P44" s="45">
+      <c r="P44" s="41">
         <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="Q44" s="45">
+      <c r="Q44" s="41">
         <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="R44" s="49">
+      <c r="R44" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S44" s="49">
+      <c r="S44" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -8035,12 +7953,12 @@
       <c r="G45" s="20">
         <v>1</v>
       </c>
-      <c r="H45" s="39">
+      <c r="H45" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I45" s="20"/>
-      <c r="J45" s="43"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20">
         <f t="shared" si="16"/>
@@ -8054,23 +7972,23 @@
         <f t="shared" si="15"/>
         <v>222.5</v>
       </c>
-      <c r="O45" s="44">
+      <c r="O45" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P45" s="45">
+      <c r="P45" s="41">
         <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="Q45" s="45">
+      <c r="Q45" s="41">
         <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="R45" s="49">
+      <c r="R45" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S45" s="49">
+      <c r="S45" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -8097,14 +8015,14 @@
       <c r="G46" s="20">
         <v>0.2</v>
       </c>
-      <c r="H46" s="39">
+      <c r="H46" s="37">
         <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
       <c r="I46" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J46" s="43"/>
+      <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20">
         <f t="shared" si="16"/>
@@ -8118,23 +8036,23 @@
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="O46" s="44">
+      <c r="O46" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P46" s="45">
+      <c r="P46" s="41">
         <f t="shared" si="19"/>
         <v>0.0314159265358979</v>
       </c>
-      <c r="Q46" s="45">
+      <c r="Q46" s="41">
         <f t="shared" si="19"/>
         <v>0.0376991118430775</v>
       </c>
-      <c r="R46" s="49">
+      <c r="R46" s="32">
         <f t="shared" si="7"/>
         <v>0.00184799567858223</v>
       </c>
-      <c r="S46" s="49">
+      <c r="S46" s="32">
         <f t="shared" si="8"/>
         <v>0.00221759481429868</v>
       </c>
@@ -8161,12 +8079,12 @@
       <c r="G47" s="20">
         <v>1</v>
       </c>
-      <c r="H47" s="39">
+      <c r="H47" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I47" s="20"/>
-      <c r="J47" s="43"/>
+      <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="2">
         <f t="shared" si="16"/>
@@ -8180,23 +8098,23 @@
         <f t="shared" si="15"/>
         <v>508</v>
       </c>
-      <c r="O47" s="44">
+      <c r="O47" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P47" s="45">
+      <c r="P47" s="41">
         <f t="shared" ref="P47:Q52" si="20">IF(G47=1,1/COUNTIF($G$47:$G$52,1),G47/2*$R$1/161*(PI()/10))</f>
         <v>0.2</v>
       </c>
-      <c r="Q47" s="45">
+      <c r="Q47" s="41">
         <f t="shared" si="20"/>
         <v>0.2</v>
       </c>
-      <c r="R47" s="49">
+      <c r="R47" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S47" s="49">
+      <c r="S47" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -8223,12 +8141,12 @@
       <c r="G48" s="20">
         <v>1</v>
       </c>
-      <c r="H48" s="39">
+      <c r="H48" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I48" s="20"/>
-      <c r="J48" s="43"/>
+      <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="20">
         <f t="shared" si="16"/>
@@ -8242,23 +8160,23 @@
         <f t="shared" ref="N48:N55" si="21">AVERAGE(L48,M48)</f>
         <v>496</v>
       </c>
-      <c r="O48" s="44">
+      <c r="O48" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P48" s="45">
+      <c r="P48" s="41">
         <f t="shared" si="20"/>
         <v>0.2</v>
       </c>
-      <c r="Q48" s="45">
+      <c r="Q48" s="41">
         <f t="shared" si="20"/>
         <v>0.2</v>
       </c>
-      <c r="R48" s="49">
+      <c r="R48" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S48" s="49">
+      <c r="S48" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -8285,14 +8203,14 @@
       <c r="G49" s="20">
         <v>0.7</v>
       </c>
-      <c r="H49" s="39">
+      <c r="H49" s="37">
         <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
       <c r="I49" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J49" s="43"/>
+      <c r="J49" s="20"/>
       <c r="K49" s="20"/>
       <c r="L49" s="20">
         <f t="shared" si="16"/>
@@ -8306,23 +8224,23 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="O49" s="44">
+      <c r="O49" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P49" s="45">
+      <c r="P49" s="41">
         <f t="shared" si="20"/>
         <v>0.109955742875643</v>
       </c>
-      <c r="Q49" s="45">
+      <c r="Q49" s="41">
         <f t="shared" si="20"/>
         <v>0.131946891450771</v>
       </c>
-      <c r="R49" s="49">
+      <c r="R49" s="32">
         <f t="shared" si="7"/>
         <v>0.00646798487503781</v>
       </c>
-      <c r="S49" s="49">
+      <c r="S49" s="32">
         <f t="shared" si="8"/>
         <v>0.00776158185004537</v>
       </c>
@@ -8349,12 +8267,12 @@
       <c r="G50" s="20">
         <v>1</v>
       </c>
-      <c r="H50" s="39">
+      <c r="H50" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I50" s="20"/>
-      <c r="J50" s="43"/>
+      <c r="J50" s="20"/>
       <c r="K50" s="20"/>
       <c r="L50" s="20">
         <f t="shared" si="16"/>
@@ -8368,23 +8286,23 @@
         <f t="shared" si="21"/>
         <v>484</v>
       </c>
-      <c r="O50" s="44">
+      <c r="O50" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P50" s="45">
+      <c r="P50" s="41">
         <f t="shared" si="20"/>
         <v>0.2</v>
       </c>
-      <c r="Q50" s="45">
+      <c r="Q50" s="41">
         <f t="shared" si="20"/>
         <v>0.2</v>
       </c>
-      <c r="R50" s="49">
+      <c r="R50" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S50" s="49">
+      <c r="S50" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -8411,12 +8329,12 @@
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="39">
+      <c r="H51" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I51" s="20"/>
-      <c r="J51" s="43"/>
+      <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20">
         <f t="shared" si="16"/>
@@ -8430,23 +8348,23 @@
         <f t="shared" si="21"/>
         <v>492</v>
       </c>
-      <c r="O51" s="44">
+      <c r="O51" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P51" s="45">
+      <c r="P51" s="41">
         <f t="shared" si="20"/>
         <v>0.2</v>
       </c>
-      <c r="Q51" s="45">
+      <c r="Q51" s="41">
         <f t="shared" si="20"/>
         <v>0.2</v>
       </c>
-      <c r="R51" s="49">
+      <c r="R51" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S51" s="49">
+      <c r="S51" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -8473,12 +8391,12 @@
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="39">
+      <c r="H52" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I52" s="20"/>
-      <c r="J52" s="43"/>
+      <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20">
         <f t="shared" si="16"/>
@@ -8492,23 +8410,23 @@
         <f t="shared" si="21"/>
         <v>444</v>
       </c>
-      <c r="O52" s="44">
+      <c r="O52" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P52" s="45">
+      <c r="P52" s="41">
         <f t="shared" si="20"/>
         <v>0.2</v>
       </c>
-      <c r="Q52" s="45">
+      <c r="Q52" s="41">
         <f t="shared" si="20"/>
         <v>0.2</v>
       </c>
-      <c r="R52" s="49">
+      <c r="R52" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S52" s="49">
+      <c r="S52" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -8535,14 +8453,14 @@
       <c r="G53" s="20">
         <v>0.6</v>
       </c>
-      <c r="H53" s="39">
+      <c r="H53" s="37">
         <f t="shared" si="3"/>
         <v>0.72</v>
       </c>
       <c r="I53" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J53" s="43"/>
+      <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20">
         <f t="shared" si="16"/>
@@ -8556,23 +8474,23 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="O53" s="44">
+      <c r="O53" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P53" s="45">
+      <c r="P53" s="41">
         <f t="shared" ref="P53:Q59" si="22">IF(G53=1,1/COUNTIF($G$53:$G$59,1),G53/2*$R$1/161*(PI()/10))</f>
         <v>0.0942477796076938</v>
       </c>
-      <c r="Q53" s="45">
+      <c r="Q53" s="41">
         <f t="shared" si="22"/>
         <v>0.113097335529233</v>
       </c>
-      <c r="R53" s="49">
+      <c r="R53" s="32">
         <f t="shared" si="7"/>
         <v>0.00554398703574669</v>
       </c>
-      <c r="S53" s="49">
+      <c r="S53" s="32">
         <f t="shared" si="8"/>
         <v>0.00665278444289603</v>
       </c>
@@ -8599,14 +8517,14 @@
       <c r="G54" s="20">
         <v>0.4</v>
       </c>
-      <c r="H54" s="39">
+      <c r="H54" s="37">
         <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="I54" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J54" s="43"/>
+      <c r="J54" s="20"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20">
         <f t="shared" si="16"/>
@@ -8620,23 +8538,23 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="O54" s="44">
+      <c r="O54" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P54" s="45">
+      <c r="P54" s="41">
         <f t="shared" si="22"/>
         <v>0.0628318530717959</v>
       </c>
-      <c r="Q54" s="45">
+      <c r="Q54" s="41">
         <f t="shared" si="22"/>
         <v>0.075398223686155</v>
       </c>
-      <c r="R54" s="49">
+      <c r="R54" s="32">
         <f t="shared" si="7"/>
         <v>0.00369599135716446</v>
       </c>
-      <c r="S54" s="49">
+      <c r="S54" s="32">
         <f t="shared" si="8"/>
         <v>0.00443518962859735</v>
       </c>
@@ -8663,14 +8581,14 @@
       <c r="G55" s="20">
         <v>0.2</v>
       </c>
-      <c r="H55" s="39">
+      <c r="H55" s="37">
         <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
       <c r="I55" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J55" s="43"/>
+      <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20">
         <f t="shared" si="16"/>
@@ -8684,23 +8602,23 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="O55" s="44">
+      <c r="O55" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P55" s="45">
+      <c r="P55" s="41">
         <f t="shared" si="22"/>
         <v>0.0314159265358979</v>
       </c>
-      <c r="Q55" s="45">
+      <c r="Q55" s="41">
         <f t="shared" si="22"/>
         <v>0.0376991118430775</v>
       </c>
-      <c r="R55" s="49">
+      <c r="R55" s="32">
         <f t="shared" si="7"/>
         <v>0.00184799567858223</v>
       </c>
-      <c r="S55" s="49">
+      <c r="S55" s="32">
         <f t="shared" si="8"/>
         <v>0.00221759481429868</v>
       </c>
@@ -8727,12 +8645,12 @@
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="39">
+      <c r="H56" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I56" s="20"/>
-      <c r="J56" s="43"/>
+      <c r="J56" s="20"/>
       <c r="K56" s="20"/>
       <c r="L56" s="20">
         <f t="shared" si="16"/>
@@ -8746,23 +8664,23 @@
         <f t="shared" si="15"/>
         <v>634.5</v>
       </c>
-      <c r="O56" s="44">
+      <c r="O56" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P56" s="45">
+      <c r="P56" s="41">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="Q56" s="45">
+      <c r="Q56" s="41">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="R56" s="49">
+      <c r="R56" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S56" s="49">
+      <c r="S56" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -8789,12 +8707,12 @@
       <c r="G57" s="20">
         <v>1</v>
       </c>
-      <c r="H57" s="39">
+      <c r="H57" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="46"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="20">
         <f t="shared" si="16"/>
@@ -8808,23 +8726,23 @@
         <f t="shared" si="15"/>
         <v>935</v>
       </c>
-      <c r="O57" s="44">
+      <c r="O57" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P57" s="45">
+      <c r="P57" s="41">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="Q57" s="45">
+      <c r="Q57" s="41">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="R57" s="49">
+      <c r="R57" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S57" s="49">
+      <c r="S57" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -8851,12 +8769,12 @@
       <c r="G58" s="20">
         <v>1</v>
       </c>
-      <c r="H58" s="39">
+      <c r="H58" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I58" s="20"/>
-      <c r="J58" s="43"/>
+      <c r="J58" s="20"/>
       <c r="K58" s="20"/>
       <c r="L58" s="20">
         <f t="shared" si="16"/>
@@ -8870,23 +8788,23 @@
         <f t="shared" si="15"/>
         <v>612</v>
       </c>
-      <c r="O58" s="44">
+      <c r="O58" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P58" s="45">
+      <c r="P58" s="41">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="Q58" s="45">
+      <c r="Q58" s="41">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="R58" s="49">
+      <c r="R58" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S58" s="49">
+      <c r="S58" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -8913,12 +8831,12 @@
       <c r="G59" s="20">
         <v>1</v>
       </c>
-      <c r="H59" s="39">
+      <c r="H59" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I59" s="20"/>
-      <c r="J59" s="43"/>
+      <c r="J59" s="20"/>
       <c r="K59" s="20"/>
       <c r="L59" s="20">
         <f t="shared" si="16"/>
@@ -8932,23 +8850,23 @@
         <f t="shared" si="15"/>
         <v>492</v>
       </c>
-      <c r="O59" s="44">
+      <c r="O59" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P59" s="45">
+      <c r="P59" s="41">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="Q59" s="45">
+      <c r="Q59" s="41">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="R59" s="49">
+      <c r="R59" s="32">
         <f t="shared" si="7"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S59" s="49">
+      <c r="S59" s="32">
         <f t="shared" si="8"/>
         <v>0.0147058823529412</v>
       </c>
@@ -8975,12 +8893,12 @@
       <c r="G60" s="20">
         <v>1</v>
       </c>
-      <c r="H60" s="39">
+      <c r="H60" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I60" s="20"/>
-      <c r="J60" s="43"/>
+      <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20">
         <f t="shared" si="16"/>
@@ -8994,23 +8912,23 @@
         <f t="shared" si="15"/>
         <v>745</v>
       </c>
-      <c r="O60" s="44">
+      <c r="O60" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P60" s="45">
+      <c r="P60" s="41">
         <f t="shared" ref="P60:Q65" si="23">IF(G60=1,1/COUNTIF($G$60:$G$65,1),G60/2*$R$1/161*(PI()/10))</f>
         <v>0.2</v>
       </c>
-      <c r="Q60" s="45">
+      <c r="Q60" s="41">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="R60" s="49">
+      <c r="R60" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S60" s="49">
+      <c r="S60" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -9037,12 +8955,12 @@
       <c r="G61" s="20">
         <v>1</v>
       </c>
-      <c r="H61" s="39">
+      <c r="H61" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I61" s="20"/>
-      <c r="J61" s="43"/>
+      <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20">
         <f t="shared" si="16"/>
@@ -9056,23 +8974,23 @@
         <f t="shared" ref="N61:N93" si="24">AVERAGE(L61,M61)</f>
         <v>650</v>
       </c>
-      <c r="O61" s="44">
+      <c r="O61" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P61" s="45">
+      <c r="P61" s="41">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="Q61" s="45">
+      <c r="Q61" s="41">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="R61" s="49">
+      <c r="R61" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S61" s="49">
+      <c r="S61" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -9099,12 +9017,12 @@
       <c r="G62" s="20">
         <v>1</v>
       </c>
-      <c r="H62" s="39">
+      <c r="H62" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I62" s="20"/>
-      <c r="J62" s="43"/>
+      <c r="J62" s="20"/>
       <c r="K62" s="20"/>
       <c r="L62" s="20">
         <f t="shared" si="16"/>
@@ -9118,23 +9036,23 @@
         <f t="shared" si="24"/>
         <v>630</v>
       </c>
-      <c r="O62" s="44">
+      <c r="O62" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P62" s="45">
+      <c r="P62" s="41">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="Q62" s="45">
+      <c r="Q62" s="41">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="R62" s="49">
+      <c r="R62" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S62" s="49">
+      <c r="S62" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -9161,12 +9079,12 @@
       <c r="G63" s="20">
         <v>1</v>
       </c>
-      <c r="H63" s="39">
+      <c r="H63" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I63" s="20"/>
-      <c r="J63" s="43"/>
+      <c r="J63" s="20"/>
       <c r="K63" s="20"/>
       <c r="L63" s="20">
         <f t="shared" si="16"/>
@@ -9180,23 +9098,23 @@
         <f t="shared" si="24"/>
         <v>725</v>
       </c>
-      <c r="O63" s="44">
+      <c r="O63" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P63" s="45">
+      <c r="P63" s="41">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="Q63" s="45">
+      <c r="Q63" s="41">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="R63" s="49">
+      <c r="R63" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S63" s="49">
+      <c r="S63" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -9223,14 +9141,14 @@
       <c r="G64" s="20">
         <v>0.4</v>
       </c>
-      <c r="H64" s="39">
+      <c r="H64" s="37">
         <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="I64" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J64" s="43"/>
+      <c r="J64" s="20"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20">
         <f t="shared" si="16"/>
@@ -9244,23 +9162,23 @@
         <f t="shared" si="24"/>
         <v>12</v>
       </c>
-      <c r="O64" s="44">
+      <c r="O64" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P64" s="45">
+      <c r="P64" s="41">
         <f t="shared" si="23"/>
         <v>0.0628318530717959</v>
       </c>
-      <c r="Q64" s="45">
+      <c r="Q64" s="41">
         <f t="shared" si="23"/>
         <v>0.075398223686155</v>
       </c>
-      <c r="R64" s="49">
+      <c r="R64" s="32">
         <f t="shared" si="7"/>
         <v>0.00369599135716446</v>
       </c>
-      <c r="S64" s="49">
+      <c r="S64" s="32">
         <f t="shared" si="8"/>
         <v>0.00443518962859735</v>
       </c>
@@ -9287,12 +9205,12 @@
       <c r="G65" s="20">
         <v>1</v>
       </c>
-      <c r="H65" s="39">
+      <c r="H65" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="46"/>
+      <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="20">
         <f t="shared" si="16"/>
@@ -9306,23 +9224,23 @@
         <f t="shared" si="24"/>
         <v>940</v>
       </c>
-      <c r="O65" s="44">
+      <c r="O65" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P65" s="45">
+      <c r="P65" s="41">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="Q65" s="45">
+      <c r="Q65" s="41">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="R65" s="49">
+      <c r="R65" s="32">
         <f t="shared" si="7"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S65" s="49">
+      <c r="S65" s="32">
         <f t="shared" si="8"/>
         <v>0.0117647058823529</v>
       </c>
@@ -9349,14 +9267,14 @@
       <c r="G66" s="20">
         <v>1</v>
       </c>
-      <c r="H66" s="39">
+      <c r="H66" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I66" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J66" s="43"/>
+      <c r="J66" s="20"/>
       <c r="K66" s="20"/>
       <c r="L66" s="20">
         <f t="shared" ref="L66:L97" si="25">D66*E66</f>
@@ -9370,23 +9288,23 @@
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="O66" s="44">
+      <c r="O66" s="40">
         <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P66" s="45">
+      <c r="P66" s="41">
         <f t="shared" ref="P66:Q72" si="27">IF(G66=1,1/COUNTIF($G$66:$G$72,1),G66/2*$R$1/161*(PI()/10))</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q66" s="45">
+      <c r="Q66" s="41">
         <f t="shared" si="27"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R66" s="49">
+      <c r="R66" s="32">
         <f t="shared" si="7"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S66" s="49">
+      <c r="S66" s="32">
         <f t="shared" si="8"/>
         <v>0.00980392156862745</v>
       </c>
@@ -9413,12 +9331,12 @@
       <c r="G67" s="20">
         <v>1</v>
       </c>
-      <c r="H67" s="39">
+      <c r="H67" s="37">
         <f t="shared" ref="H67:H113" si="28">IF(G67=1,1,G67*(1+$H$1))</f>
         <v>1</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="46"/>
+      <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="20">
         <f t="shared" si="25"/>
@@ -9432,23 +9350,23 @@
         <f t="shared" si="24"/>
         <v>885.5</v>
       </c>
-      <c r="O67" s="44">
+      <c r="O67" s="40">
         <f t="shared" ref="O67:O113" si="29">1/(TRUNC($R$1/9))</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P67" s="45">
+      <c r="P67" s="41">
         <f t="shared" si="27"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q67" s="45">
+      <c r="Q67" s="41">
         <f t="shared" si="27"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R67" s="49">
+      <c r="R67" s="32">
         <f t="shared" ref="R67:R113" si="30">O67*P67</f>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S67" s="49">
+      <c r="S67" s="32">
         <f t="shared" ref="S67:S113" si="31">O67*Q67</f>
         <v>0.00980392156862745</v>
       </c>
@@ -9475,12 +9393,12 @@
       <c r="G68" s="20">
         <v>1</v>
       </c>
-      <c r="H68" s="39">
+      <c r="H68" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="46"/>
+      <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="20">
         <f t="shared" si="25"/>
@@ -9494,23 +9412,23 @@
         <f t="shared" si="24"/>
         <v>940.5</v>
       </c>
-      <c r="O68" s="44">
+      <c r="O68" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P68" s="45">
+      <c r="P68" s="41">
         <f t="shared" si="27"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q68" s="45">
+      <c r="Q68" s="41">
         <f t="shared" si="27"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R68" s="49">
+      <c r="R68" s="32">
         <f t="shared" si="30"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S68" s="49">
+      <c r="S68" s="32">
         <f t="shared" si="31"/>
         <v>0.00980392156862745</v>
       </c>
@@ -9537,12 +9455,12 @@
       <c r="G69" s="20">
         <v>1</v>
       </c>
-      <c r="H69" s="39">
+      <c r="H69" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="46"/>
+      <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="20">
         <f t="shared" si="25"/>
@@ -9556,23 +9474,23 @@
         <f t="shared" si="24"/>
         <v>918.5</v>
       </c>
-      <c r="O69" s="44">
+      <c r="O69" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P69" s="45">
+      <c r="P69" s="41">
         <f t="shared" si="27"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q69" s="45">
+      <c r="Q69" s="41">
         <f t="shared" si="27"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R69" s="49">
+      <c r="R69" s="32">
         <f t="shared" si="30"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S69" s="49">
+      <c r="S69" s="32">
         <f t="shared" si="31"/>
         <v>0.00980392156862745</v>
       </c>
@@ -9599,14 +9517,14 @@
       <c r="G70" s="20">
         <v>0.5</v>
       </c>
-      <c r="H70" s="39">
+      <c r="H70" s="37">
         <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="I70" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J70" s="43"/>
+      <c r="J70" s="20"/>
       <c r="K70" s="20"/>
       <c r="L70" s="20">
         <f t="shared" si="25"/>
@@ -9620,23 +9538,23 @@
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="O70" s="44">
+      <c r="O70" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P70" s="45">
+      <c r="P70" s="41">
         <f t="shared" si="27"/>
         <v>0.0785398163397448</v>
       </c>
-      <c r="Q70" s="45">
+      <c r="Q70" s="41">
         <f t="shared" si="27"/>
         <v>0.0942477796076938</v>
       </c>
-      <c r="R70" s="49">
+      <c r="R70" s="32">
         <f t="shared" si="30"/>
         <v>0.00461998919645558</v>
       </c>
-      <c r="S70" s="49">
+      <c r="S70" s="32">
         <f t="shared" si="31"/>
         <v>0.00554398703574669</v>
       </c>
@@ -9663,12 +9581,12 @@
       <c r="G71" s="20">
         <v>1</v>
       </c>
-      <c r="H71" s="39">
+      <c r="H71" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="46"/>
+      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="20">
         <f t="shared" si="25"/>
@@ -9682,23 +9600,23 @@
         <f t="shared" si="24"/>
         <v>786.5</v>
       </c>
-      <c r="O71" s="44">
+      <c r="O71" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P71" s="45">
+      <c r="P71" s="41">
         <f t="shared" si="27"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q71" s="45">
+      <c r="Q71" s="41">
         <f t="shared" si="27"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R71" s="49">
+      <c r="R71" s="32">
         <f t="shared" si="30"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S71" s="49">
+      <c r="S71" s="32">
         <f t="shared" si="31"/>
         <v>0.00980392156862745</v>
       </c>
@@ -9725,12 +9643,12 @@
       <c r="G72" s="20">
         <v>1</v>
       </c>
-      <c r="H72" s="39">
+      <c r="H72" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="46"/>
+      <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="20">
         <f t="shared" si="25"/>
@@ -9744,23 +9662,23 @@
         <f t="shared" si="24"/>
         <v>990</v>
       </c>
-      <c r="O72" s="44">
+      <c r="O72" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P72" s="45">
+      <c r="P72" s="41">
         <f t="shared" si="27"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="Q72" s="45">
+      <c r="Q72" s="41">
         <f t="shared" si="27"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="R72" s="49">
+      <c r="R72" s="32">
         <f t="shared" si="30"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="S72" s="49">
+      <c r="S72" s="32">
         <f t="shared" si="31"/>
         <v>0.00980392156862745</v>
       </c>
@@ -9787,12 +9705,12 @@
       <c r="G73" s="20">
         <v>1</v>
       </c>
-      <c r="H73" s="39">
+      <c r="H73" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="46"/>
+      <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="20">
         <f t="shared" si="25"/>
@@ -9806,23 +9724,23 @@
         <f t="shared" si="24"/>
         <v>1020</v>
       </c>
-      <c r="O73" s="44">
+      <c r="O73" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P73" s="45">
+      <c r="P73" s="41">
         <f t="shared" ref="P73:Q78" si="32">IF(G73=1,1/COUNTIF($G$73:$G$78,1),G73/2*$R$1/161*(PI()/10))</f>
         <v>0.25</v>
       </c>
-      <c r="Q73" s="45">
+      <c r="Q73" s="41">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="R73" s="49">
+      <c r="R73" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S73" s="49">
+      <c r="S73" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -9849,14 +9767,14 @@
       <c r="G74" s="20">
         <v>1</v>
       </c>
-      <c r="H74" s="39">
+      <c r="H74" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I74" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J74" s="43"/>
+      <c r="J74" s="20"/>
       <c r="K74" s="20"/>
       <c r="L74" s="20">
         <f t="shared" si="25"/>
@@ -9870,23 +9788,23 @@
         <f t="shared" si="24"/>
         <v>8</v>
       </c>
-      <c r="O74" s="44">
+      <c r="O74" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P74" s="45">
+      <c r="P74" s="41">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="Q74" s="45">
+      <c r="Q74" s="41">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="R74" s="49">
+      <c r="R74" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S74" s="49">
+      <c r="S74" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -9913,12 +9831,12 @@
       <c r="G75" s="20">
         <v>1</v>
       </c>
-      <c r="H75" s="39">
+      <c r="H75" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I75" s="2"/>
-      <c r="J75" s="46"/>
+      <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="20">
         <f t="shared" si="25"/>
@@ -9932,23 +9850,23 @@
         <f t="shared" si="24"/>
         <v>1086</v>
       </c>
-      <c r="O75" s="44">
+      <c r="O75" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P75" s="45">
+      <c r="P75" s="41">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="Q75" s="45">
+      <c r="Q75" s="41">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="R75" s="49">
+      <c r="R75" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S75" s="49">
+      <c r="S75" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -9975,14 +9893,14 @@
       <c r="G76" s="20">
         <v>0.6</v>
       </c>
-      <c r="H76" s="39">
+      <c r="H76" s="37">
         <f t="shared" si="28"/>
         <v>0.72</v>
       </c>
       <c r="I76" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J76" s="43"/>
+      <c r="J76" s="20"/>
       <c r="K76" s="2" t="s">
         <v>166</v>
       </c>
@@ -9998,23 +9916,23 @@
         <f t="shared" si="24"/>
         <v>20</v>
       </c>
-      <c r="O76" s="44">
+      <c r="O76" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P76" s="45">
+      <c r="P76" s="41">
         <f t="shared" si="32"/>
         <v>0.0942477796076938</v>
       </c>
-      <c r="Q76" s="45">
+      <c r="Q76" s="41">
         <f t="shared" si="32"/>
         <v>0.113097335529233</v>
       </c>
-      <c r="R76" s="49">
+      <c r="R76" s="32">
         <f t="shared" si="30"/>
         <v>0.00554398703574669</v>
       </c>
-      <c r="S76" s="49">
+      <c r="S76" s="32">
         <f t="shared" si="31"/>
         <v>0.00665278444289603</v>
       </c>
@@ -10041,14 +9959,14 @@
       <c r="G77" s="20">
         <v>0.6</v>
       </c>
-      <c r="H77" s="39">
+      <c r="H77" s="37">
         <f t="shared" si="28"/>
         <v>0.72</v>
       </c>
       <c r="I77" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J77" s="43"/>
+      <c r="J77" s="20"/>
       <c r="K77" s="2" t="s">
         <v>169</v>
       </c>
@@ -10064,23 +9982,23 @@
         <f t="shared" si="24"/>
         <v>112.5</v>
       </c>
-      <c r="O77" s="44">
+      <c r="O77" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P77" s="45">
+      <c r="P77" s="41">
         <f t="shared" si="32"/>
         <v>0.0942477796076938</v>
       </c>
-      <c r="Q77" s="45">
+      <c r="Q77" s="41">
         <f t="shared" si="32"/>
         <v>0.113097335529233</v>
       </c>
-      <c r="R77" s="49">
+      <c r="R77" s="32">
         <f t="shared" si="30"/>
         <v>0.00554398703574669</v>
       </c>
-      <c r="S77" s="49">
+      <c r="S77" s="32">
         <f t="shared" si="31"/>
         <v>0.00665278444289603</v>
       </c>
@@ -10107,12 +10025,12 @@
       <c r="G78" s="20">
         <v>1</v>
       </c>
-      <c r="H78" s="39">
+      <c r="H78" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I78" s="2"/>
-      <c r="J78" s="46"/>
+      <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="20">
         <f t="shared" si="25"/>
@@ -10126,23 +10044,23 @@
         <f t="shared" si="24"/>
         <v>1050</v>
       </c>
-      <c r="O78" s="44">
+      <c r="O78" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P78" s="45">
+      <c r="P78" s="41">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="Q78" s="45">
+      <c r="Q78" s="41">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="R78" s="49">
+      <c r="R78" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S78" s="49">
+      <c r="S78" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -10169,12 +10087,12 @@
       <c r="G79" s="20">
         <v>1</v>
       </c>
-      <c r="H79" s="39">
+      <c r="H79" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I79" s="2"/>
-      <c r="J79" s="46"/>
+      <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="20">
         <f t="shared" si="25"/>
@@ -10188,23 +10106,23 @@
         <f t="shared" si="24"/>
         <v>1332</v>
       </c>
-      <c r="O79" s="44">
+      <c r="O79" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P79" s="45">
+      <c r="P79" s="41">
         <f t="shared" ref="P79:Q85" si="33">IF(G79=1,1/COUNTIF($G$79:$G$85,1),G79/2*$R$1/161*(PI()/10))</f>
         <v>0.2</v>
       </c>
-      <c r="Q79" s="45">
+      <c r="Q79" s="41">
         <f t="shared" si="33"/>
         <v>0.2</v>
       </c>
-      <c r="R79" s="49">
+      <c r="R79" s="32">
         <f t="shared" si="30"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S79" s="49">
+      <c r="S79" s="32">
         <f t="shared" si="31"/>
         <v>0.0117647058823529</v>
       </c>
@@ -10231,12 +10149,12 @@
       <c r="G80" s="20">
         <v>1</v>
       </c>
-      <c r="H80" s="39">
+      <c r="H80" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I80" s="2"/>
-      <c r="J80" s="46"/>
+      <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="20">
         <f t="shared" si="25"/>
@@ -10250,23 +10168,23 @@
         <f t="shared" si="24"/>
         <v>1272</v>
       </c>
-      <c r="O80" s="44">
+      <c r="O80" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P80" s="45">
+      <c r="P80" s="41">
         <f t="shared" si="33"/>
         <v>0.2</v>
       </c>
-      <c r="Q80" s="45">
+      <c r="Q80" s="41">
         <f t="shared" si="33"/>
         <v>0.2</v>
       </c>
-      <c r="R80" s="49">
+      <c r="R80" s="32">
         <f t="shared" si="30"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S80" s="49">
+      <c r="S80" s="32">
         <f t="shared" si="31"/>
         <v>0.0117647058823529</v>
       </c>
@@ -10293,12 +10211,12 @@
       <c r="G81" s="20">
         <v>1</v>
       </c>
-      <c r="H81" s="39">
+      <c r="H81" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I81" s="2"/>
-      <c r="J81" s="46"/>
+      <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="20">
         <f t="shared" si="25"/>
@@ -10312,23 +10230,23 @@
         <f t="shared" si="24"/>
         <v>1456</v>
       </c>
-      <c r="O81" s="44">
+      <c r="O81" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P81" s="45">
+      <c r="P81" s="41">
         <f t="shared" si="33"/>
         <v>0.2</v>
       </c>
-      <c r="Q81" s="45">
+      <c r="Q81" s="41">
         <f t="shared" si="33"/>
         <v>0.2</v>
       </c>
-      <c r="R81" s="49">
+      <c r="R81" s="32">
         <f t="shared" si="30"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S81" s="49">
+      <c r="S81" s="32">
         <f t="shared" si="31"/>
         <v>0.0117647058823529</v>
       </c>
@@ -10355,12 +10273,12 @@
       <c r="G82" s="20">
         <v>1</v>
       </c>
-      <c r="H82" s="39">
+      <c r="H82" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I82" s="2"/>
-      <c r="J82" s="46"/>
+      <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="20">
         <f t="shared" si="25"/>
@@ -10374,23 +10292,23 @@
         <f t="shared" si="24"/>
         <v>1339</v>
       </c>
-      <c r="O82" s="44">
+      <c r="O82" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P82" s="45">
+      <c r="P82" s="41">
         <f t="shared" si="33"/>
         <v>0.2</v>
       </c>
-      <c r="Q82" s="45">
+      <c r="Q82" s="41">
         <f t="shared" si="33"/>
         <v>0.2</v>
       </c>
-      <c r="R82" s="49">
+      <c r="R82" s="32">
         <f t="shared" si="30"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S82" s="49">
+      <c r="S82" s="32">
         <f t="shared" si="31"/>
         <v>0.0117647058823529</v>
       </c>
@@ -10417,12 +10335,12 @@
       <c r="G83" s="20">
         <v>1</v>
       </c>
-      <c r="H83" s="39">
+      <c r="H83" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I83" s="2"/>
-      <c r="J83" s="46"/>
+      <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="20">
         <f t="shared" si="25"/>
@@ -10436,23 +10354,23 @@
         <f t="shared" si="24"/>
         <v>1449.5</v>
       </c>
-      <c r="O83" s="44">
+      <c r="O83" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P83" s="45">
+      <c r="P83" s="41">
         <f t="shared" si="33"/>
         <v>0.2</v>
       </c>
-      <c r="Q83" s="45">
+      <c r="Q83" s="41">
         <f t="shared" si="33"/>
         <v>0.2</v>
       </c>
-      <c r="R83" s="49">
+      <c r="R83" s="32">
         <f t="shared" si="30"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S83" s="49">
+      <c r="S83" s="32">
         <f t="shared" si="31"/>
         <v>0.0117647058823529</v>
       </c>
@@ -10479,14 +10397,14 @@
       <c r="G84" s="20">
         <v>0.6</v>
       </c>
-      <c r="H84" s="39">
+      <c r="H84" s="37">
         <f t="shared" si="28"/>
         <v>0.72</v>
       </c>
       <c r="I84" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J84" s="43"/>
+      <c r="J84" s="20"/>
       <c r="K84" s="2" t="s">
         <v>184</v>
       </c>
@@ -10502,23 +10420,23 @@
         <f t="shared" si="24"/>
         <v>20</v>
       </c>
-      <c r="O84" s="44">
+      <c r="O84" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P84" s="45">
+      <c r="P84" s="41">
         <f t="shared" si="33"/>
         <v>0.0942477796076938</v>
       </c>
-      <c r="Q84" s="45">
+      <c r="Q84" s="41">
         <f t="shared" si="33"/>
         <v>0.113097335529233</v>
       </c>
-      <c r="R84" s="49">
+      <c r="R84" s="32">
         <f t="shared" si="30"/>
         <v>0.00554398703574669</v>
       </c>
-      <c r="S84" s="49">
+      <c r="S84" s="32">
         <f t="shared" si="31"/>
         <v>0.00665278444289603</v>
       </c>
@@ -10545,14 +10463,14 @@
       <c r="G85" s="20">
         <v>0.5</v>
       </c>
-      <c r="H85" s="39">
+      <c r="H85" s="37">
         <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="I85" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J85" s="43"/>
+      <c r="J85" s="20"/>
       <c r="K85" s="2" t="s">
         <v>166</v>
       </c>
@@ -10568,23 +10486,23 @@
         <f t="shared" si="24"/>
         <v>20</v>
       </c>
-      <c r="O85" s="44">
+      <c r="O85" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P85" s="45">
+      <c r="P85" s="41">
         <f t="shared" si="33"/>
         <v>0.0785398163397448</v>
       </c>
-      <c r="Q85" s="45">
+      <c r="Q85" s="41">
         <f t="shared" si="33"/>
         <v>0.0942477796076938</v>
       </c>
-      <c r="R85" s="49">
+      <c r="R85" s="32">
         <f t="shared" si="30"/>
         <v>0.00461998919645558</v>
       </c>
-      <c r="S85" s="49">
+      <c r="S85" s="32">
         <f t="shared" si="31"/>
         <v>0.00554398703574669</v>
       </c>
@@ -10611,12 +10529,12 @@
       <c r="G86" s="20">
         <v>1</v>
       </c>
-      <c r="H86" s="39">
+      <c r="H86" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I86" s="2"/>
-      <c r="J86" s="46"/>
+      <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="20">
         <f t="shared" si="25"/>
@@ -10630,23 +10548,23 @@
         <f t="shared" si="24"/>
         <v>1430</v>
       </c>
-      <c r="O86" s="44">
+      <c r="O86" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P86" s="45">
+      <c r="P86" s="41">
         <f t="shared" ref="P86:Q91" si="34">IF(G86=1,1/COUNTIF($G$86:$G$91,1),G86/2*$R$1/161*(PI()/10))</f>
         <v>0.25</v>
       </c>
-      <c r="Q86" s="45">
+      <c r="Q86" s="41">
         <f t="shared" si="34"/>
         <v>0.25</v>
       </c>
-      <c r="R86" s="49">
+      <c r="R86" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S86" s="49">
+      <c r="S86" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -10673,12 +10591,12 @@
       <c r="G87" s="20">
         <v>1</v>
       </c>
-      <c r="H87" s="39">
+      <c r="H87" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I87" s="2"/>
-      <c r="J87" s="46"/>
+      <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="20">
         <f t="shared" si="25"/>
@@ -10692,23 +10610,23 @@
         <f t="shared" si="24"/>
         <v>1505</v>
       </c>
-      <c r="O87" s="44">
+      <c r="O87" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P87" s="45">
+      <c r="P87" s="41">
         <f t="shared" si="34"/>
         <v>0.25</v>
       </c>
-      <c r="Q87" s="45">
+      <c r="Q87" s="41">
         <f t="shared" si="34"/>
         <v>0.25</v>
       </c>
-      <c r="R87" s="49">
+      <c r="R87" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S87" s="49">
+      <c r="S87" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -10735,12 +10653,12 @@
       <c r="G88" s="20">
         <v>1</v>
       </c>
-      <c r="H88" s="39">
+      <c r="H88" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I88" s="2"/>
-      <c r="J88" s="46"/>
+      <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="20">
         <f t="shared" si="25"/>
@@ -10754,23 +10672,23 @@
         <f t="shared" si="24"/>
         <v>1925</v>
       </c>
-      <c r="O88" s="44">
+      <c r="O88" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P88" s="45">
+      <c r="P88" s="41">
         <f t="shared" si="34"/>
         <v>0.25</v>
       </c>
-      <c r="Q88" s="45">
+      <c r="Q88" s="41">
         <f t="shared" si="34"/>
         <v>0.25</v>
       </c>
-      <c r="R88" s="49">
+      <c r="R88" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S88" s="49">
+      <c r="S88" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -10797,12 +10715,12 @@
       <c r="G89" s="20">
         <v>1</v>
       </c>
-      <c r="H89" s="39">
+      <c r="H89" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I89" s="2"/>
-      <c r="J89" s="46"/>
+      <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="20">
         <f t="shared" si="25"/>
@@ -10816,23 +10734,23 @@
         <f t="shared" si="24"/>
         <v>1953</v>
       </c>
-      <c r="O89" s="44">
+      <c r="O89" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P89" s="45">
+      <c r="P89" s="41">
         <f t="shared" si="34"/>
         <v>0.25</v>
       </c>
-      <c r="Q89" s="45">
+      <c r="Q89" s="41">
         <f t="shared" si="34"/>
         <v>0.25</v>
       </c>
-      <c r="R89" s="49">
+      <c r="R89" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S89" s="49">
+      <c r="S89" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -10859,14 +10777,14 @@
       <c r="G90" s="20">
         <v>0.5</v>
       </c>
-      <c r="H90" s="39">
+      <c r="H90" s="37">
         <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="I90" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J90" s="43"/>
+      <c r="J90" s="20"/>
       <c r="K90" s="2" t="s">
         <v>169</v>
       </c>
@@ -10882,23 +10800,23 @@
         <f t="shared" si="24"/>
         <v>20</v>
       </c>
-      <c r="O90" s="44">
+      <c r="O90" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P90" s="45">
+      <c r="P90" s="41">
         <f t="shared" si="34"/>
         <v>0.0785398163397448</v>
       </c>
-      <c r="Q90" s="45">
+      <c r="Q90" s="41">
         <f t="shared" si="34"/>
         <v>0.0942477796076938</v>
       </c>
-      <c r="R90" s="49">
+      <c r="R90" s="32">
         <f t="shared" si="30"/>
         <v>0.00461998919645558</v>
       </c>
-      <c r="S90" s="49">
+      <c r="S90" s="32">
         <f t="shared" si="31"/>
         <v>0.00554398703574669</v>
       </c>
@@ -10925,14 +10843,14 @@
       <c r="G91" s="20">
         <v>0.5</v>
       </c>
-      <c r="H91" s="39">
+      <c r="H91" s="37">
         <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
       <c r="I91" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J91" s="43"/>
+      <c r="J91" s="20"/>
       <c r="K91" s="2" t="s">
         <v>184</v>
       </c>
@@ -10948,23 +10866,23 @@
         <f t="shared" si="24"/>
         <v>20</v>
       </c>
-      <c r="O91" s="44">
+      <c r="O91" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P91" s="45">
+      <c r="P91" s="41">
         <f t="shared" si="34"/>
         <v>0.0785398163397448</v>
       </c>
-      <c r="Q91" s="45">
+      <c r="Q91" s="41">
         <f t="shared" si="34"/>
         <v>0.0942477796076938</v>
       </c>
-      <c r="R91" s="49">
+      <c r="R91" s="32">
         <f t="shared" si="30"/>
         <v>0.00461998919645558</v>
       </c>
-      <c r="S91" s="49">
+      <c r="S91" s="32">
         <f t="shared" si="31"/>
         <v>0.00554398703574669</v>
       </c>
@@ -10991,12 +10909,12 @@
       <c r="G92" s="20">
         <v>1</v>
       </c>
-      <c r="H92" s="39">
+      <c r="H92" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I92" s="2"/>
-      <c r="J92" s="46"/>
+      <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="20">
         <f t="shared" si="25"/>
@@ -11010,23 +10928,23 @@
         <f t="shared" si="24"/>
         <v>1512</v>
       </c>
-      <c r="O92" s="44">
+      <c r="O92" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P92" s="45">
+      <c r="P92" s="41">
         <f t="shared" ref="P92:Q98" si="35">IF(G92=1,1/COUNTIF($G$92:$G$98,1),G92/2*$R$1/161*(PI()/10))</f>
         <v>0.25</v>
       </c>
-      <c r="Q92" s="45">
+      <c r="Q92" s="41">
         <f t="shared" si="35"/>
         <v>0.25</v>
       </c>
-      <c r="R92" s="49">
+      <c r="R92" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S92" s="49">
+      <c r="S92" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -11053,12 +10971,12 @@
       <c r="G93" s="20">
         <v>1</v>
       </c>
-      <c r="H93" s="39">
+      <c r="H93" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I93" s="2"/>
-      <c r="J93" s="46"/>
+      <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="20">
         <f t="shared" si="25"/>
@@ -11072,23 +10990,23 @@
         <f t="shared" si="24"/>
         <v>2017.5</v>
       </c>
-      <c r="O93" s="44">
+      <c r="O93" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P93" s="45">
+      <c r="P93" s="41">
         <f t="shared" si="35"/>
         <v>0.25</v>
       </c>
-      <c r="Q93" s="45">
+      <c r="Q93" s="41">
         <f t="shared" si="35"/>
         <v>0.25</v>
       </c>
-      <c r="R93" s="49">
+      <c r="R93" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S93" s="49">
+      <c r="S93" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -11097,7 +11015,7 @@
       <c r="A94" s="7">
         <v>15</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="38" t="s">
         <v>203</v>
       </c>
       <c r="C94" s="10" t="s">
@@ -11115,12 +11033,12 @@
       <c r="G94" s="20">
         <v>1.4</v>
       </c>
-      <c r="H94" s="39">
+      <c r="H94" s="37">
         <f t="shared" si="28"/>
         <v>1.68</v>
       </c>
       <c r="I94" s="2"/>
-      <c r="J94" s="46" t="b">
+      <c r="J94" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K94" s="2"/>
@@ -11136,23 +11054,23 @@
         <f t="shared" ref="N94:N102" si="36">AVERAGE(L94,M94)</f>
         <v>-2520</v>
       </c>
-      <c r="O94" s="44">
+      <c r="O94" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P94" s="45">
+      <c r="P94" s="41">
         <f t="shared" si="35"/>
         <v>0.219911485751285</v>
       </c>
-      <c r="Q94" s="45">
+      <c r="Q94" s="41">
         <f t="shared" si="35"/>
         <v>0.263893782901543</v>
       </c>
-      <c r="R94" s="49">
+      <c r="R94" s="32">
         <f t="shared" si="30"/>
         <v>0.0129359697500756</v>
       </c>
-      <c r="S94" s="49">
+      <c r="S94" s="32">
         <f t="shared" si="31"/>
         <v>0.0155231637000907</v>
       </c>
@@ -11179,7 +11097,7 @@
       <c r="G95" s="20">
         <v>1</v>
       </c>
-      <c r="H95" s="39">
+      <c r="H95" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
@@ -11195,23 +11113,23 @@
         <f t="shared" si="36"/>
         <v>1927.5</v>
       </c>
-      <c r="O95" s="44">
+      <c r="O95" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P95" s="45">
+      <c r="P95" s="41">
         <f t="shared" si="35"/>
         <v>0.25</v>
       </c>
-      <c r="Q95" s="45">
+      <c r="Q95" s="41">
         <f t="shared" si="35"/>
         <v>0.25</v>
       </c>
-      <c r="R95" s="49">
+      <c r="R95" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S95" s="49">
+      <c r="S95" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -11238,12 +11156,12 @@
       <c r="G96" s="20">
         <v>1</v>
       </c>
-      <c r="H96" s="39">
+      <c r="H96" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I96" s="2"/>
-      <c r="J96" s="46"/>
+      <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="20">
         <f t="shared" si="25"/>
@@ -11257,23 +11175,23 @@
         <f t="shared" si="36"/>
         <v>2085</v>
       </c>
-      <c r="O96" s="44">
+      <c r="O96" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P96" s="45">
+      <c r="P96" s="41">
         <f t="shared" si="35"/>
         <v>0.25</v>
       </c>
-      <c r="Q96" s="45">
+      <c r="Q96" s="41">
         <f t="shared" si="35"/>
         <v>0.25</v>
       </c>
-      <c r="R96" s="49">
+      <c r="R96" s="32">
         <f t="shared" si="30"/>
         <v>0.0147058823529412</v>
       </c>
-      <c r="S96" s="49">
+      <c r="S96" s="32">
         <f t="shared" si="31"/>
         <v>0.0147058823529412</v>
       </c>
@@ -11300,14 +11218,14 @@
       <c r="G97" s="20">
         <v>0.3</v>
       </c>
-      <c r="H97" s="39">
+      <c r="H97" s="37">
         <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="I97" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J97" s="43"/>
+      <c r="J97" s="20"/>
       <c r="K97" s="2" t="s">
         <v>166</v>
       </c>
@@ -11323,23 +11241,23 @@
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="O97" s="44">
+      <c r="O97" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P97" s="45">
+      <c r="P97" s="41">
         <f t="shared" si="35"/>
         <v>0.0471238898038469</v>
       </c>
-      <c r="Q97" s="45">
+      <c r="Q97" s="41">
         <f t="shared" si="35"/>
         <v>0.0565486677646163</v>
       </c>
-      <c r="R97" s="49">
+      <c r="R97" s="32">
         <f t="shared" si="30"/>
         <v>0.00277199351787335</v>
       </c>
-      <c r="S97" s="49">
+      <c r="S97" s="32">
         <f t="shared" si="31"/>
         <v>0.00332639222144802</v>
       </c>
@@ -11366,14 +11284,14 @@
       <c r="G98" s="20">
         <v>0.3</v>
       </c>
-      <c r="H98" s="39">
+      <c r="H98" s="37">
         <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="I98" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J98" s="43"/>
+      <c r="J98" s="20"/>
       <c r="K98" s="2" t="s">
         <v>169</v>
       </c>
@@ -11389,23 +11307,23 @@
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="O98" s="44">
+      <c r="O98" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P98" s="45">
+      <c r="P98" s="41">
         <f t="shared" si="35"/>
         <v>0.0471238898038469</v>
       </c>
-      <c r="Q98" s="45">
+      <c r="Q98" s="41">
         <f t="shared" si="35"/>
         <v>0.0565486677646163</v>
       </c>
-      <c r="R98" s="49">
+      <c r="R98" s="32">
         <f t="shared" si="30"/>
         <v>0.00277199351787335</v>
       </c>
-      <c r="S98" s="49">
+      <c r="S98" s="32">
         <f t="shared" si="31"/>
         <v>0.00332639222144802</v>
       </c>
@@ -11432,12 +11350,12 @@
       <c r="G99" s="20">
         <v>1</v>
       </c>
-      <c r="H99" s="39">
+      <c r="H99" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I99" s="2"/>
-      <c r="J99" s="46"/>
+      <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="20">
         <f t="shared" si="37"/>
@@ -11451,23 +11369,23 @@
         <f t="shared" si="36"/>
         <v>1957.5</v>
       </c>
-      <c r="O99" s="44">
+      <c r="O99" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P99" s="45">
+      <c r="P99" s="41">
         <f t="shared" ref="P99:Q104" si="39">IF(G99=1,1/COUNTIF($G$99:$G$104,1),G99/2*$R$1/161*(PI()/10))</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="Q99" s="45">
+      <c r="Q99" s="41">
         <f t="shared" si="39"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="R99" s="49">
+      <c r="R99" s="32">
         <f t="shared" si="30"/>
         <v>0.0196078431372549</v>
       </c>
-      <c r="S99" s="49">
+      <c r="S99" s="32">
         <f t="shared" si="31"/>
         <v>0.0196078431372549</v>
       </c>
@@ -11494,12 +11412,12 @@
       <c r="G100" s="20">
         <v>1</v>
       </c>
-      <c r="H100" s="39">
+      <c r="H100" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I100" s="2"/>
-      <c r="J100" s="46"/>
+      <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="20">
         <f t="shared" si="37"/>
@@ -11513,23 +11431,23 @@
         <f t="shared" si="36"/>
         <v>2167.5</v>
       </c>
-      <c r="O100" s="44">
+      <c r="O100" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P100" s="45">
+      <c r="P100" s="41">
         <f t="shared" si="39"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="Q100" s="45">
+      <c r="Q100" s="41">
         <f t="shared" si="39"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="R100" s="49">
+      <c r="R100" s="32">
         <f t="shared" si="30"/>
         <v>0.0196078431372549</v>
       </c>
-      <c r="S100" s="49">
+      <c r="S100" s="32">
         <f t="shared" si="31"/>
         <v>0.0196078431372549</v>
       </c>
@@ -11556,12 +11474,12 @@
       <c r="G101" s="20">
         <v>1</v>
       </c>
-      <c r="H101" s="39">
+      <c r="H101" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I101" s="2"/>
-      <c r="J101" s="46"/>
+      <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="20">
         <f t="shared" si="37"/>
@@ -11575,23 +11493,23 @@
         <f t="shared" si="36"/>
         <v>2624</v>
       </c>
-      <c r="O101" s="44">
+      <c r="O101" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P101" s="45">
+      <c r="P101" s="41">
         <f t="shared" si="39"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="Q101" s="45">
+      <c r="Q101" s="41">
         <f t="shared" si="39"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="R101" s="49">
+      <c r="R101" s="32">
         <f t="shared" si="30"/>
         <v>0.0196078431372549</v>
       </c>
-      <c r="S101" s="49">
+      <c r="S101" s="32">
         <f t="shared" si="31"/>
         <v>0.0196078431372549</v>
       </c>
@@ -11600,7 +11518,7 @@
       <c r="A102" s="7">
         <v>16</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B102" s="38" t="s">
         <v>219</v>
       </c>
       <c r="C102" s="10" t="s">
@@ -11618,12 +11536,12 @@
       <c r="G102" s="20">
         <v>1.4</v>
       </c>
-      <c r="H102" s="39">
+      <c r="H102" s="37">
         <f t="shared" si="28"/>
         <v>1.68</v>
       </c>
       <c r="I102" s="2"/>
-      <c r="J102" s="46" t="b">
+      <c r="J102" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K102" s="2"/>
@@ -11639,23 +11557,23 @@
         <f t="shared" si="36"/>
         <v>-3220</v>
       </c>
-      <c r="O102" s="44">
+      <c r="O102" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P102" s="45">
+      <c r="P102" s="41">
         <f t="shared" si="39"/>
         <v>0.219911485751285</v>
       </c>
-      <c r="Q102" s="45">
+      <c r="Q102" s="41">
         <f t="shared" si="39"/>
         <v>0.263893782901543</v>
       </c>
-      <c r="R102" s="49">
+      <c r="R102" s="32">
         <f t="shared" si="30"/>
         <v>0.0129359697500756</v>
       </c>
-      <c r="S102" s="49">
+      <c r="S102" s="32">
         <f t="shared" si="31"/>
         <v>0.0155231637000907</v>
       </c>
@@ -11682,14 +11600,14 @@
       <c r="G103" s="20">
         <v>0.3</v>
       </c>
-      <c r="H103" s="39">
+      <c r="H103" s="37">
         <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="I103" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J103" s="43"/>
+      <c r="J103" s="20"/>
       <c r="K103" s="2" t="s">
         <v>184</v>
       </c>
@@ -11705,23 +11623,23 @@
         <f t="shared" ref="N103:N111" si="40">AVERAGE(L103,M103)</f>
         <v>20</v>
       </c>
-      <c r="O103" s="44">
+      <c r="O103" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P103" s="45">
+      <c r="P103" s="41">
         <f t="shared" si="39"/>
         <v>0.0471238898038469</v>
       </c>
-      <c r="Q103" s="45">
+      <c r="Q103" s="41">
         <f t="shared" si="39"/>
         <v>0.0565486677646163</v>
       </c>
-      <c r="R103" s="49">
+      <c r="R103" s="32">
         <f t="shared" si="30"/>
         <v>0.00277199351787335</v>
       </c>
-      <c r="S103" s="49">
+      <c r="S103" s="32">
         <f t="shared" si="31"/>
         <v>0.00332639222144802</v>
       </c>
@@ -11748,14 +11666,14 @@
       <c r="G104" s="20">
         <v>0.1</v>
       </c>
-      <c r="H104" s="39">
+      <c r="H104" s="37">
         <f t="shared" si="28"/>
         <v>0.12</v>
       </c>
       <c r="I104" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J104" s="43"/>
+      <c r="J104" s="20"/>
       <c r="K104" s="2" t="s">
         <v>166</v>
       </c>
@@ -11771,23 +11689,23 @@
         <f t="shared" si="40"/>
         <v>20</v>
       </c>
-      <c r="O104" s="44">
+      <c r="O104" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P104" s="45">
+      <c r="P104" s="41">
         <f t="shared" si="39"/>
         <v>0.015707963267949</v>
       </c>
-      <c r="Q104" s="45">
+      <c r="Q104" s="41">
         <f t="shared" si="39"/>
         <v>0.0188495559215388</v>
       </c>
-      <c r="R104" s="49">
+      <c r="R104" s="32">
         <f t="shared" si="30"/>
         <v>0.000923997839291116</v>
       </c>
-      <c r="S104" s="49">
+      <c r="S104" s="32">
         <f t="shared" si="31"/>
         <v>0.00110879740714934</v>
       </c>
@@ -11814,12 +11732,12 @@
       <c r="G105" s="20">
         <v>1</v>
       </c>
-      <c r="H105" s="39">
+      <c r="H105" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I105" s="2"/>
-      <c r="J105" s="46"/>
+      <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="20">
         <f t="shared" si="37"/>
@@ -11833,23 +11751,23 @@
         <f t="shared" si="40"/>
         <v>2448</v>
       </c>
-      <c r="O105" s="44">
+      <c r="O105" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P105" s="45">
+      <c r="P105" s="41">
         <f t="shared" ref="P105:P113" si="41">IF(G105=1,1/COUNTIF($G$105:$G$113,1),G105/2*$R$1/161*(PI()/10))</f>
         <v>0.2</v>
       </c>
-      <c r="Q105" s="45">
+      <c r="Q105" s="41">
         <f t="shared" ref="Q105:Q113" si="42">IF(H105=1,1/COUNTIF($G$105:$G$113,1),H105/2*$R$1/161*(PI()/10))</f>
         <v>0.2</v>
       </c>
-      <c r="R105" s="49">
+      <c r="R105" s="32">
         <f t="shared" si="30"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S105" s="49">
+      <c r="S105" s="32">
         <f t="shared" si="31"/>
         <v>0.0117647058823529</v>
       </c>
@@ -11876,12 +11794,12 @@
       <c r="G106" s="20">
         <v>1</v>
       </c>
-      <c r="H106" s="39">
+      <c r="H106" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I106" s="2"/>
-      <c r="J106" s="46"/>
+      <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="20">
         <f t="shared" si="37"/>
@@ -11895,23 +11813,23 @@
         <f t="shared" si="40"/>
         <v>2632</v>
       </c>
-      <c r="O106" s="44">
+      <c r="O106" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P106" s="45">
+      <c r="P106" s="41">
         <f t="shared" si="41"/>
         <v>0.2</v>
       </c>
-      <c r="Q106" s="45">
+      <c r="Q106" s="41">
         <f t="shared" si="42"/>
         <v>0.2</v>
       </c>
-      <c r="R106" s="49">
+      <c r="R106" s="32">
         <f t="shared" si="30"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S106" s="49">
+      <c r="S106" s="32">
         <f t="shared" si="31"/>
         <v>0.0117647058823529</v>
       </c>
@@ -11938,14 +11856,14 @@
       <c r="G107" s="20">
         <v>0.1</v>
       </c>
-      <c r="H107" s="39">
+      <c r="H107" s="37">
         <f t="shared" si="28"/>
         <v>0.12</v>
       </c>
       <c r="I107" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J107" s="43"/>
+      <c r="J107" s="20"/>
       <c r="K107" s="2" t="s">
         <v>169</v>
       </c>
@@ -11961,23 +11879,23 @@
         <f t="shared" si="40"/>
         <v>20</v>
       </c>
-      <c r="O107" s="44">
+      <c r="O107" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P107" s="45">
+      <c r="P107" s="41">
         <f t="shared" si="41"/>
         <v>0.015707963267949</v>
       </c>
-      <c r="Q107" s="45">
+      <c r="Q107" s="41">
         <f t="shared" si="42"/>
         <v>0.0188495559215388</v>
       </c>
-      <c r="R107" s="49">
+      <c r="R107" s="32">
         <f t="shared" si="30"/>
         <v>0.000923997839291116</v>
       </c>
-      <c r="S107" s="49">
+      <c r="S107" s="32">
         <f t="shared" si="31"/>
         <v>0.00110879740714934</v>
       </c>
@@ -12004,14 +11922,14 @@
       <c r="G108" s="20">
         <v>0.1</v>
       </c>
-      <c r="H108" s="39">
+      <c r="H108" s="37">
         <f t="shared" si="28"/>
         <v>0.12</v>
       </c>
       <c r="I108" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J108" s="43"/>
+      <c r="J108" s="20"/>
       <c r="K108" s="2" t="s">
         <v>184</v>
       </c>
@@ -12027,23 +11945,23 @@
         <f t="shared" si="40"/>
         <v>20</v>
       </c>
-      <c r="O108" s="44">
+      <c r="O108" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P108" s="45">
+      <c r="P108" s="41">
         <f t="shared" si="41"/>
         <v>0.015707963267949</v>
       </c>
-      <c r="Q108" s="45">
+      <c r="Q108" s="41">
         <f t="shared" si="42"/>
         <v>0.0188495559215388</v>
       </c>
-      <c r="R108" s="49">
+      <c r="R108" s="32">
         <f t="shared" si="30"/>
         <v>0.000923997839291116</v>
       </c>
-      <c r="S108" s="49">
+      <c r="S108" s="32">
         <f t="shared" si="31"/>
         <v>0.00110879740714934</v>
       </c>
@@ -12070,12 +11988,12 @@
       <c r="G109" s="20">
         <v>1</v>
       </c>
-      <c r="H109" s="39">
+      <c r="H109" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I109" s="2"/>
-      <c r="J109" s="46"/>
+      <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="20">
         <f t="shared" si="37"/>
@@ -12089,23 +12007,23 @@
         <f t="shared" si="40"/>
         <v>2720</v>
       </c>
-      <c r="O109" s="44">
+      <c r="O109" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P109" s="45">
+      <c r="P109" s="41">
         <f t="shared" si="41"/>
         <v>0.2</v>
       </c>
-      <c r="Q109" s="45">
+      <c r="Q109" s="41">
         <f t="shared" si="42"/>
         <v>0.2</v>
       </c>
-      <c r="R109" s="49">
+      <c r="R109" s="32">
         <f t="shared" si="30"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S109" s="49">
+      <c r="S109" s="32">
         <f t="shared" si="31"/>
         <v>0.0117647058823529</v>
       </c>
@@ -12132,12 +12050,12 @@
       <c r="G110" s="20">
         <v>1</v>
       </c>
-      <c r="H110" s="39">
+      <c r="H110" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I110" s="2"/>
-      <c r="J110" s="46"/>
+      <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="20">
         <f t="shared" si="37"/>
@@ -12151,23 +12069,23 @@
         <f t="shared" si="40"/>
         <v>2618</v>
       </c>
-      <c r="O110" s="44">
+      <c r="O110" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P110" s="45">
+      <c r="P110" s="41">
         <f t="shared" si="41"/>
         <v>0.2</v>
       </c>
-      <c r="Q110" s="45">
+      <c r="Q110" s="41">
         <f t="shared" si="42"/>
         <v>0.2</v>
       </c>
-      <c r="R110" s="49">
+      <c r="R110" s="32">
         <f t="shared" si="30"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S110" s="49">
+      <c r="S110" s="32">
         <f t="shared" si="31"/>
         <v>0.0117647058823529</v>
       </c>
@@ -12194,12 +12112,12 @@
       <c r="G111" s="20">
         <v>1</v>
       </c>
-      <c r="H111" s="39">
+      <c r="H111" s="37">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I111" s="2"/>
-      <c r="J111" s="46"/>
+      <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="20">
         <f t="shared" si="37"/>
@@ -12213,23 +12131,23 @@
         <f t="shared" si="40"/>
         <v>2788</v>
       </c>
-      <c r="O111" s="44">
+      <c r="O111" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P111" s="45">
+      <c r="P111" s="41">
         <f t="shared" si="41"/>
         <v>0.2</v>
       </c>
-      <c r="Q111" s="45">
+      <c r="Q111" s="41">
         <f t="shared" si="42"/>
         <v>0.2</v>
       </c>
-      <c r="R111" s="49">
+      <c r="R111" s="32">
         <f t="shared" si="30"/>
         <v>0.0117647058823529</v>
       </c>
-      <c r="S111" s="49">
+      <c r="S111" s="32">
         <f t="shared" si="31"/>
         <v>0.0117647058823529</v>
       </c>
@@ -12256,12 +12174,12 @@
       <c r="G112" s="20">
         <v>0.02</v>
       </c>
-      <c r="H112" s="39">
+      <c r="H112" s="37">
         <f t="shared" si="28"/>
         <v>0.024</v>
       </c>
       <c r="I112" s="2"/>
-      <c r="J112" s="46"/>
+      <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="20">
         <f t="shared" si="37"/>
@@ -12275,23 +12193,23 @@
         <f t="shared" ref="N112:N113" si="43">AVERAGE(L112,M112)</f>
         <v>85026</v>
       </c>
-      <c r="O112" s="44">
+      <c r="O112" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P112" s="45">
+      <c r="P112" s="41">
         <f t="shared" si="41"/>
         <v>0.00314159265358979</v>
       </c>
-      <c r="Q112" s="45">
+      <c r="Q112" s="41">
         <f t="shared" si="42"/>
         <v>0.00376991118430775</v>
       </c>
-      <c r="R112" s="49">
+      <c r="R112" s="32">
         <f t="shared" si="30"/>
         <v>0.000184799567858223</v>
       </c>
-      <c r="S112" s="49">
+      <c r="S112" s="32">
         <f t="shared" si="31"/>
         <v>0.000221759481429868</v>
       </c>
@@ -12318,7 +12236,7 @@
       <c r="G113" s="20">
         <v>0.01</v>
       </c>
-      <c r="H113" s="39">
+      <c r="H113" s="37">
         <f t="shared" si="28"/>
         <v>0.012</v>
       </c>
@@ -12336,31 +12254,31 @@
         <f t="shared" si="43"/>
         <v>144189</v>
       </c>
-      <c r="O113" s="44">
+      <c r="O113" s="40">
         <f t="shared" si="29"/>
         <v>0.0588235294117647</v>
       </c>
-      <c r="P113" s="45">
+      <c r="P113" s="41">
         <f t="shared" si="41"/>
         <v>0.0015707963267949</v>
       </c>
-      <c r="Q113" s="45">
+      <c r="Q113" s="41">
         <f t="shared" si="42"/>
         <v>0.00188495559215388</v>
       </c>
-      <c r="R113" s="49">
+      <c r="R113" s="32">
         <f t="shared" si="30"/>
         <v>9.23997839291116e-5</v>
       </c>
-      <c r="S113" s="49">
+      <c r="S113" s="32">
         <f t="shared" si="31"/>
         <v>0.000110879740714934</v>
       </c>
     </row>
     <row r="114" spans="7:17">
       <c r="G114" s="20"/>
-      <c r="P114" s="45"/>
-      <c r="Q114" s="45"/>
+      <c r="P114" s="41"/>
+      <c r="Q114" s="41"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G$1:G$1048576">
@@ -12385,9 +12303,9 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L109" sqref="L109"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="14.25"/>
@@ -13255,7 +13173,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" ht="28.5" hidden="1" spans="1:12">
+    <row r="31" ht="28.5" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>337</v>
       </c>
@@ -13393,7 +13311,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" hidden="1" spans="1:12">
+    <row r="36" spans="1:12">
       <c r="A36" s="8" t="s">
         <v>353</v>
       </c>
@@ -13421,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:12">
+    <row r="37" spans="1:12">
       <c r="A37" s="8" t="s">
         <v>357</v>
       </c>
@@ -13449,7 +13367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:12">
+    <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
         <v>361</v>
       </c>
@@ -13477,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:12">
+    <row r="39" spans="1:12">
       <c r="A39" s="8" t="s">
         <v>365</v>
       </c>
@@ -13505,7 +13423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:12">
+    <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
         <v>369</v>
       </c>
@@ -13535,7 +13453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:12">
+    <row r="41" spans="1:12">
       <c r="A41" s="8" t="s">
         <v>372</v>
       </c>
@@ -13591,7 +13509,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" s="15" customFormat="1" hidden="1" spans="1:12">
+    <row r="43" s="15" customFormat="1" spans="1:12">
       <c r="A43" s="2" t="s">
         <v>379</v>
       </c>
@@ -13619,7 +13537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="28.5" hidden="1" spans="1:12">
+    <row r="44" ht="28.5" spans="1:12">
       <c r="A44" s="2" t="s">
         <v>383</v>
       </c>
@@ -13647,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="28.5" hidden="1" spans="1:12">
+    <row r="45" ht="28.5" spans="1:12">
       <c r="A45" s="2" t="s">
         <v>386</v>
       </c>
@@ -13675,7 +13593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="28.5" hidden="1" spans="1:12">
+    <row r="46" ht="28.5" spans="1:12">
       <c r="A46" s="2" t="s">
         <v>389</v>
       </c>
@@ -13703,7 +13621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="28.5" hidden="1" spans="1:12">
+    <row r="47" ht="28.5" spans="1:12">
       <c r="A47" s="2" t="s">
         <v>393</v>
       </c>
@@ -13731,7 +13649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="28.5" hidden="1" spans="1:12">
+    <row r="48" ht="28.5" spans="1:12">
       <c r="A48" s="2" t="s">
         <v>397</v>
       </c>
@@ -13759,7 +13677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="28.5" hidden="1" spans="1:12">
+    <row r="49" ht="28.5" spans="1:12">
       <c r="A49" s="2" t="s">
         <v>401</v>
       </c>
@@ -13787,7 +13705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="42.75" hidden="1" spans="1:12">
+    <row r="50" ht="42.75" spans="1:12">
       <c r="A50" s="2" t="s">
         <v>405</v>
       </c>
@@ -13873,7 +13791,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" ht="28.5" hidden="1" spans="1:12">
+    <row r="53" ht="28.5" spans="1:12">
       <c r="A53" s="2" t="s">
         <v>415</v>
       </c>
@@ -13903,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="28.5" hidden="1" spans="1:12">
+    <row r="54" ht="28.5" spans="1:12">
       <c r="A54" s="2" t="s">
         <v>419</v>
       </c>
@@ -13933,7 +13851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" ht="28.5" hidden="1" spans="1:12">
+    <row r="55" ht="28.5" spans="1:12">
       <c r="A55" s="2" t="s">
         <v>423</v>
       </c>
@@ -13963,7 +13881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="28.5" hidden="1" spans="1:12">
+    <row r="56" ht="28.5" spans="1:12">
       <c r="A56" s="2" t="s">
         <v>427</v>
       </c>
@@ -13993,7 +13911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="28.5" hidden="1" spans="1:12">
+    <row r="57" ht="28.5" spans="1:12">
       <c r="A57" s="2" t="s">
         <v>431</v>
       </c>
@@ -14023,7 +13941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="28.5" hidden="1" spans="1:12">
+    <row r="58" ht="28.5" spans="1:12">
       <c r="A58" s="2" t="s">
         <v>435</v>
       </c>
@@ -14053,7 +13971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="28.5" hidden="1" spans="1:12">
+    <row r="59" ht="28.5" spans="1:12">
       <c r="A59" s="2" t="s">
         <v>439</v>
       </c>
@@ -14083,7 +14001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" ht="28.5" hidden="1" spans="1:12">
+    <row r="60" ht="28.5" spans="1:12">
       <c r="A60" s="2" t="s">
         <v>443</v>
       </c>
@@ -14113,7 +14031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" ht="28.5" hidden="1" spans="1:12">
+    <row r="61" ht="28.5" spans="1:12">
       <c r="A61" s="2" t="s">
         <v>447</v>
       </c>
@@ -14143,7 +14061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="28.5" hidden="1" spans="1:12">
+    <row r="62" ht="28.5" spans="1:12">
       <c r="A62" s="2" t="s">
         <v>451</v>
       </c>
@@ -14173,7 +14091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" ht="57" hidden="1" spans="1:12">
+    <row r="63" ht="57" spans="1:12">
       <c r="A63" s="2" t="s">
         <v>455</v>
       </c>
@@ -14201,7 +14119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" ht="28.5" hidden="1" spans="1:12">
+    <row r="64" ht="28.5" spans="1:12">
       <c r="A64" s="2" t="s">
         <v>458</v>
       </c>
@@ -14231,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="28.5" hidden="1" spans="1:12">
+    <row r="65" ht="28.5" spans="1:12">
       <c r="A65" s="2" t="s">
         <v>461</v>
       </c>
@@ -14261,7 +14179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" ht="28.5" hidden="1" spans="1:12">
+    <row r="66" ht="28.5" spans="1:12">
       <c r="A66" s="2" t="s">
         <v>464</v>
       </c>
@@ -14291,7 +14209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" ht="28.5" hidden="1" spans="1:12">
+    <row r="67" ht="28.5" spans="1:12">
       <c r="A67" s="2" t="s">
         <v>467</v>
       </c>
@@ -14321,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" ht="28.5" hidden="1" spans="1:12">
+    <row r="68" ht="28.5" spans="1:12">
       <c r="A68" s="2" t="s">
         <v>470</v>
       </c>
@@ -14351,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="28.5" hidden="1" spans="1:12">
+    <row r="69" ht="28.5" spans="1:12">
       <c r="A69" s="2" t="s">
         <v>473</v>
       </c>
@@ -14381,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" ht="28.5" hidden="1" spans="1:12">
+    <row r="70" ht="28.5" spans="1:12">
       <c r="A70" s="2" t="s">
         <v>476</v>
       </c>
@@ -14411,7 +14329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" ht="28.5" hidden="1" spans="1:12">
+    <row r="71" ht="28.5" spans="1:12">
       <c r="A71" s="2" t="s">
         <v>480</v>
       </c>
@@ -14441,7 +14359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" ht="28.5" hidden="1" spans="1:12">
+    <row r="72" ht="28.5" spans="1:12">
       <c r="A72" s="2" t="s">
         <v>484</v>
       </c>
@@ -14471,7 +14389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" ht="28.5" hidden="1" spans="1:12">
+    <row r="73" ht="28.5" spans="1:12">
       <c r="A73" s="2" t="s">
         <v>488</v>
       </c>
@@ -14501,7 +14419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" ht="28.5" hidden="1" spans="1:12">
+    <row r="74" ht="28.5" spans="1:12">
       <c r="A74" s="2" t="s">
         <v>492</v>
       </c>
@@ -14531,7 +14449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" ht="28.5" hidden="1" spans="1:12">
+    <row r="75" ht="28.5" spans="1:12">
       <c r="A75" s="2" t="s">
         <v>496</v>
       </c>
@@ -14561,7 +14479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="28.5" hidden="1" spans="1:12">
+    <row r="76" ht="28.5" spans="1:12">
       <c r="A76" s="2" t="s">
         <v>500</v>
       </c>
@@ -14591,7 +14509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" ht="28.5" hidden="1" spans="1:12">
+    <row r="77" ht="28.5" spans="1:12">
       <c r="A77" s="2" t="s">
         <v>504</v>
       </c>
@@ -14621,7 +14539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="28.5" hidden="1" spans="1:12">
+    <row r="78" ht="28.5" spans="1:12">
       <c r="A78" s="2" t="s">
         <v>507</v>
       </c>
@@ -14651,7 +14569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="28.5" hidden="1" spans="1:12">
+    <row r="79" ht="28.5" spans="1:12">
       <c r="A79" s="2" t="s">
         <v>511</v>
       </c>
@@ -14681,7 +14599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="28.5" hidden="1" spans="1:12">
+    <row r="80" ht="28.5" spans="1:12">
       <c r="A80" s="2" t="s">
         <v>515</v>
       </c>
@@ -14711,7 +14629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" ht="28.5" hidden="1" spans="1:12">
+    <row r="81" ht="28.5" spans="1:12">
       <c r="A81" s="2" t="s">
         <v>519</v>
       </c>
@@ -14741,7 +14659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="28.5" hidden="1" spans="1:12">
+    <row r="82" ht="28.5" spans="1:12">
       <c r="A82" s="2" t="s">
         <v>523</v>
       </c>
@@ -14771,7 +14689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="28.5" hidden="1" spans="1:12">
+    <row r="83" ht="28.5" spans="1:12">
       <c r="A83" s="2" t="s">
         <v>527</v>
       </c>
@@ -15302,7 +15220,7 @@
       <c r="B107" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="D107" s="19" t="s">
         <v>588</v>
       </c>
       <c r="E107" s="7">
@@ -15336,7 +15254,7 @@
       <c r="B109" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="29" t="s">
         <v>594</v>
       </c>
       <c r="E109" s="7">

--- a/fish.xlsx
+++ b/fish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="鱼" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">道具系统!$A$1:$L$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">神秘商店!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">神秘商店!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="717">
   <si>
     <t>等级</t>
   </si>
@@ -3593,7 +3593,10 @@
     <t>币币</t>
   </si>
   <si>
-    <t>赛季币1:2</t>
+    <t>赛季币</t>
+  </si>
+  <si>
+    <t>是否常驻</t>
   </si>
   <si>
     <t>SS-1</t>
@@ -4183,13 +4186,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Segoe UI Symbol"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -12302,10 +12305,10 @@
   <sheetPr/>
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="14.25"/>
@@ -15286,12 +15289,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15300,11 +15303,12 @@
     <col min="2" max="2" width="14.6333333333333" customWidth="1"/>
     <col min="3" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="14.6333333333333" customWidth="1"/>
-    <col min="7" max="8" width="8.63333333333333" customWidth="1"/>
-    <col min="9" max="9" width="30.8166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="30.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>242</v>
       </c>
@@ -15330,12 +15334,15 @@
         <v>600</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>104</v>
@@ -15354,11 +15361,12 @@
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="13"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>104</v>
@@ -15375,11 +15383,11 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>104</v>
@@ -15396,11 +15404,11 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>104</v>
@@ -15417,11 +15425,11 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>104</v>
@@ -15438,11 +15446,11 @@
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>104</v>
@@ -15457,11 +15465,11 @@
       <c r="G7">
         <v>200000</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>104</v>
@@ -15476,11 +15484,11 @@
       <c r="G8">
         <v>300000</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>104</v>
@@ -15495,11 +15503,11 @@
       <c r="H9">
         <v>400000</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>104</v>
@@ -15514,11 +15522,11 @@
       <c r="H10">
         <v>600000</v>
       </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>104</v>
@@ -15535,13 +15543,13 @@
       <c r="F11" s="2">
         <v>8</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>104</v>
@@ -15558,13 +15566,13 @@
       <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>104</v>
@@ -15581,13 +15589,13 @@
       <c r="F13" s="2">
         <v>10</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>122</v>
@@ -15604,11 +15612,11 @@
       <c r="F14" s="2">
         <v>10</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>122</v>
@@ -15625,11 +15633,11 @@
       <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>122</v>
@@ -15646,11 +15654,11 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>122</v>
@@ -15667,11 +15675,11 @@
       <c r="F17" s="2">
         <v>5</v>
       </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>122</v>
@@ -15686,11 +15694,11 @@
       <c r="G18">
         <v>400000</v>
       </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>122</v>
@@ -15705,11 +15713,11 @@
       <c r="G19">
         <v>600000</v>
       </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>122</v>
@@ -15724,11 +15732,11 @@
       <c r="H20">
         <v>800000</v>
       </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>122</v>
@@ -15743,11 +15751,11 @@
       <c r="H21">
         <v>1200000</v>
       </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>122</v>
@@ -15764,13 +15772,13 @@
       <c r="F22" s="2">
         <v>10</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>122</v>
@@ -15787,13 +15795,13 @@
       <c r="F23" s="2">
         <v>5</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>122</v>
@@ -15810,13 +15818,13 @@
       <c r="F24" s="2">
         <v>11</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>120</v>
@@ -15833,11 +15841,11 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>120</v>
@@ -15852,11 +15860,11 @@
       <c r="G26">
         <v>40000</v>
       </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>120</v>
@@ -15871,11 +15879,11 @@
       <c r="G27">
         <v>50000</v>
       </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>120</v>
@@ -15890,11 +15898,11 @@
       <c r="H28">
         <v>80000</v>
       </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>120</v>
@@ -15909,11 +15917,11 @@
       <c r="H29">
         <v>100000</v>
       </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>120</v>
@@ -15930,13 +15938,13 @@
       <c r="F30" s="2">
         <v>4</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>120</v>
@@ -15953,13 +15961,13 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>120</v>
@@ -15976,13 +15984,13 @@
       <c r="F32" s="2">
         <v>3</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>140</v>
@@ -15999,11 +16007,11 @@
       <c r="F33" s="2">
         <v>2</v>
       </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>140</v>
@@ -16018,11 +16026,11 @@
       <c r="G34">
         <v>40000</v>
       </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>140</v>
@@ -16037,11 +16045,11 @@
       <c r="G35">
         <v>50000</v>
       </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>140</v>
@@ -16056,11 +16064,11 @@
       <c r="H36">
         <v>80000</v>
       </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>140</v>
@@ -16075,11 +16083,11 @@
       <c r="H37">
         <v>100000</v>
       </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>140</v>
@@ -16096,13 +16104,13 @@
       <c r="F38" s="2">
         <v>4</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>140</v>
@@ -16119,13 +16127,13 @@
       <c r="F39" s="2">
         <v>1</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>140</v>
@@ -16142,13 +16150,13 @@
       <c r="F40" s="2">
         <v>3</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>54</v>
@@ -16165,11 +16173,11 @@
       <c r="F41" s="2">
         <v>1</v>
       </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>54</v>
@@ -16186,11 +16194,11 @@
       <c r="F42" s="2">
         <v>1</v>
       </c>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>54</v>
@@ -16206,11 +16214,11 @@
       <c r="G43">
         <v>5</v>
       </c>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>54</v>
@@ -16226,11 +16234,11 @@
       <c r="G44">
         <v>5000</v>
       </c>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>54</v>
@@ -16246,11 +16254,11 @@
       <c r="H45">
         <v>10</v>
       </c>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>54</v>
@@ -16266,11 +16274,11 @@
       <c r="H46">
         <v>10000</v>
       </c>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>54</v>
@@ -16287,13 +16295,13 @@
       <c r="F47" s="2">
         <v>1</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>46</v>
@@ -16309,11 +16317,11 @@
       <c r="G48">
         <v>10000</v>
       </c>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>46</v>
@@ -16329,11 +16337,11 @@
       <c r="H49">
         <v>20000</v>
       </c>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>46</v>
@@ -16350,13 +16358,13 @@
       <c r="F50" s="2">
         <v>20</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>46</v>
@@ -16373,13 +16381,13 @@
       <c r="F51" s="2">
         <v>3</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>46</v>
@@ -16396,13 +16404,13 @@
       <c r="F52" s="2">
         <v>10</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>615</v>
+      <c r="J52" s="4" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>24</v>
@@ -16417,9 +16425,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>24</v>
@@ -16434,13 +16442,13 @@
       <c r="G54">
         <v>5700</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>24</v>
@@ -16455,13 +16463,13 @@
       <c r="G55">
         <v>5400</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>24</v>
@@ -16476,13 +16484,13 @@
       <c r="G56">
         <v>10800</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>24</v>
@@ -16497,13 +16505,13 @@
       <c r="G57">
         <v>10200</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>24</v>
@@ -16518,13 +16526,13 @@
       <c r="G58">
         <v>15300</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>24</v>
@@ -16539,13 +16547,13 @@
       <c r="G59">
         <v>14400</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>24</v>
@@ -16560,13 +16568,13 @@
       <c r="G60">
         <v>19200</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>24</v>
@@ -16581,13 +16589,13 @@
       <c r="G61">
         <v>24000</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>674</v>
+      <c r="J61" s="4" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>24</v>
@@ -16603,9 +16611,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>24</v>
@@ -16620,13 +16628,13 @@
       <c r="H63">
         <v>11400</v>
       </c>
-      <c r="I63" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>24</v>
@@ -16641,13 +16649,13 @@
       <c r="H64">
         <v>10800</v>
       </c>
-      <c r="I64" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>24</v>
@@ -16662,13 +16670,13 @@
       <c r="H65">
         <v>21600</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>24</v>
@@ -16683,13 +16691,13 @@
       <c r="H66">
         <v>20400</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>24</v>
@@ -16704,13 +16712,13 @@
       <c r="H67">
         <v>30600</v>
       </c>
-      <c r="I67" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>24</v>
@@ -16725,13 +16733,13 @@
       <c r="H68">
         <v>28800</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>24</v>
@@ -16746,13 +16754,13 @@
       <c r="H69">
         <v>38400</v>
       </c>
-      <c r="I69" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>24</v>
@@ -16767,13 +16775,13 @@
       <c r="H70">
         <v>48000</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>674</v>
+      <c r="J70" s="4" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>195</v>
@@ -16793,7 +16801,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>209</v>
@@ -16813,7 +16821,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>197</v>
@@ -16833,7 +16841,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>221</v>
@@ -16853,7 +16861,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>228</v>
@@ -16873,7 +16881,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>223</v>
@@ -16922,19 +16930,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1" s="9"/>
     </row>
@@ -16943,28 +16951,28 @@
         <v>203</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>696</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>699</v>
-      </c>
       <c r="I2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -16972,25 +16980,25 @@
         <v>219</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:8">
@@ -17021,10 +17029,10 @@
     </row>
     <row r="6" ht="28.5" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>240</v>
@@ -17033,16 +17041,16 @@
         <v>241</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -17091,7 +17099,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>573</v>
@@ -17121,7 +17129,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>576</v>
@@ -17151,7 +17159,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>579</v>
@@ -17181,7 +17189,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>582</v>
@@ -17211,7 +17219,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -17231,7 +17239,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -17251,7 +17259,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:8">
@@ -17271,7 +17279,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -17291,7 +17299,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -17311,7 +17319,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:8">
@@ -17331,7 +17339,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -17351,7 +17359,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -17371,7 +17379,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:8">
@@ -17391,7 +17399,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -17411,7 +17419,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -17431,7 +17439,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:8">
@@ -17451,7 +17459,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -17471,7 +17479,7 @@
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="19" spans="3:3">
